--- a/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.982427026597009</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.869759117224476</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2156551850530946</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.509353957793351</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000739216567306996</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,28 +456,34 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.015057279498365</v>
+      </c>
+      <c r="O2">
+        <v>2.931383681138655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.107717271585216</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.59242090789553</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1843461179052497</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.276061235729713</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007528450167902361</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,28 +503,34 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.012390678333546</v>
+      </c>
+      <c r="O3">
+        <v>2.548593748991109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.587661818701804</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.427699889500275</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1657433319904129</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.139003235228671</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007612912789959347</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,28 +550,34 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.013890136422262</v>
+      </c>
+      <c r="O4">
+        <v>2.32475721746151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.379272385859963</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.36172123036755</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.158292457155639</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.084414960379206</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007647602440909817</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -573,28 +597,34 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.015196698640608</v>
+      </c>
+      <c r="O5">
+        <v>2.235919903280305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.34486351265025</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.350828101675688</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1570623949635035</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.075419366476922</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007653380905711506</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -614,28 +644,34 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.015453198108432</v>
+      </c>
+      <c r="O6">
+        <v>2.221300586338387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4.584837983571788</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.426805742308886</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.165642352830929</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.138262270088973</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007613379441758686</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -655,28 +691,34 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.013905054040279</v>
+      </c>
+      <c r="O7">
+        <v>2.323550029338918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5.676809910570171</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.772812145627597</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2047137996865871</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.427438889848546</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007439041942542096</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -696,28 +738,34 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.013425909602191</v>
+      </c>
+      <c r="O8">
+        <v>2.79678755852521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7.994328627279231</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.509588931386759</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2877057149227795</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.060177310609589</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007099309473889791</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -737,28 +785,34 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.042537842844396</v>
+      </c>
+      <c r="O9">
+        <v>3.837924283000774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>9.878508353076199</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3.112011678754129</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3551434669680305</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.596140364558053</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006843650430084263</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -778,28 +832,34 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.091559591748762</v>
+      </c>
+      <c r="O10">
+        <v>4.715593492340219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>10.79882278905711</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.407623676611991</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3880410235568377</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.865889968181889</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006723655072240058</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -819,28 +879,34 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.122854705176053</v>
+      </c>
+      <c r="O11">
+        <v>5.153410058145028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>11.15924596008574</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3.523664174336886</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.4009138393509204</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.973080399611106</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006677398972694867</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -860,28 +926,34 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.136357771981238</v>
+      </c>
+      <c r="O12">
+        <v>5.326428830749762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>11.08103628051174</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3.498470700106452</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3981210982086054</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.949744174360774</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006687403021208294</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -901,28 +973,34 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.133369069108653</v>
+      </c>
+      <c r="O13">
+        <v>5.288811460846176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>10.8282163503809</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3.417081264621061</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3890910903581499</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.874598159112693</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006719867917719304</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -942,28 +1020,34 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.123929990760004</v>
+      </c>
+      <c r="O14">
+        <v>5.167487823324763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>10.67500993275883</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.367797252696448</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3836174184146728</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.829273368129691</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006739637097405671</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -983,28 +1067,34 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.118376224285939</v>
+      </c>
+      <c r="O15">
+        <v>5.09417464267608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>9.819856469529668</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3.093204440169075</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.353045725367565</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.579134782260041</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006851395838204307</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1024,28 +1114,34 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.08972339776885</v>
+      </c>
+      <c r="O16">
+        <v>4.687888395821886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9.313171810528843</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.930884614329614</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3349187884785607</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.433116174580221</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006918835404017867</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1065,28 +1161,34 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.074669825348977</v>
+      </c>
+      <c r="O17">
+        <v>4.449553229810988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>9.027475307779298</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.83947732879335</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3246944193388259</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.351470936904107</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006957298574447935</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1106,28 +1208,34 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.066831081322519</v>
+      </c>
+      <c r="O18">
+        <v>4.315972198135967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>8.931656491640808</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.808838929765272</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3212648237466169</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.324196806857657</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006970272709273082</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1147,28 +1255,34 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.064308695450677</v>
+      </c>
+      <c r="O19">
+        <v>4.271302956326593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>9.366498097124122</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.947955352265069</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.336826950031039</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.44840985861299</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006911691880502273</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1188,28 +1302,34 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.076185242963447</v>
+      </c>
+      <c r="O20">
+        <v>4.474551421645629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>10.90212466205537</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3.440866348490147</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3917312267972619</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.896520469040667</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006710357130416206</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1229,28 +1349,34 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.126654146844473</v>
+      </c>
+      <c r="O21">
+        <v>5.202911018446486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>11.97735804488025</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3.787660614359652</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.4301057847697223</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.219819998150129</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006573797355721897</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1270,28 +1396,34 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.169539701434275</v>
+      </c>
+      <c r="O22">
+        <v>5.722330559555076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>11.3957119807319</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3.599882244032528</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.4093555837116583</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.043899668564336</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006647260823333977</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1311,28 +1443,34 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.145590162582977</v>
+      </c>
+      <c r="O23">
+        <v>5.440410054429236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>9.342372029321496</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2.940231784503737</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3359636632058596</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.441488502602368</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.00069149224080812</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1352,28 +1490,34 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.075497606997672</v>
+      </c>
+      <c r="O24">
+        <v>4.463239139342534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>7.341946550479634</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.301774028426166</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2643419646007459</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.87928155748844</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007191638384162308</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1392,6 +1536,12 @@
       </c>
       <c r="M25">
         <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.030620552821446</v>
+      </c>
+      <c r="O25">
+        <v>3.54027969523176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.982427026597009</v>
+        <v>1.170033360203178</v>
       </c>
       <c r="C2">
-        <v>1.869759117224476</v>
+        <v>0.08140551456862255</v>
       </c>
       <c r="D2">
-        <v>0.2156551850530946</v>
+        <v>0.2938144398341649</v>
       </c>
       <c r="E2">
-        <v>1.509353957793351</v>
+        <v>0.07137022586037389</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000739216567306996</v>
+        <v>0.0008332629776270204</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6154987364715794</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01937510567318723</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.015794905010495</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2974719424214527</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.015057279498365</v>
+        <v>1.143635621106707</v>
       </c>
       <c r="O2">
-        <v>2.931383681138655</v>
+        <v>2.8072522887812</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.107717271585216</v>
+        <v>1.026089868654907</v>
       </c>
       <c r="C3">
-        <v>1.59242090789553</v>
+        <v>0.07345316375449329</v>
       </c>
       <c r="D3">
-        <v>0.1843461179052497</v>
+        <v>0.2737051873012035</v>
       </c>
       <c r="E3">
-        <v>1.276061235729713</v>
+        <v>0.06866454236861586</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007528450167902361</v>
+        <v>0.0008372905087951632</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6162643239671013</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01963319140624975</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.884722897788464</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2725548676419152</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.012390678333546</v>
+        <v>1.193050416222638</v>
       </c>
       <c r="O3">
-        <v>2.548593748991109</v>
+        <v>2.773040932141015</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.587661818701804</v>
+        <v>0.9382633550484627</v>
       </c>
       <c r="C4">
-        <v>1.427699889500275</v>
+        <v>0.06856502683141485</v>
       </c>
       <c r="D4">
-        <v>0.1657433319904129</v>
+        <v>0.2616781001259767</v>
       </c>
       <c r="E4">
-        <v>1.139003235228671</v>
+        <v>0.06707930286585118</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007612912789959347</v>
+        <v>0.0008398491464165176</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6176427562911648</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01980186520656835</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.804625036601351</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2575447632698626</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.013890136422262</v>
+        <v>1.224636929183189</v>
       </c>
       <c r="O4">
-        <v>2.32475721746151</v>
+        <v>2.756330347201526</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.379272385859963</v>
+        <v>0.9025979530383381</v>
       </c>
       <c r="C5">
-        <v>1.36172123036755</v>
+        <v>0.06657084867185148</v>
       </c>
       <c r="D5">
-        <v>0.158292457155639</v>
+        <v>0.2568534978918819</v>
       </c>
       <c r="E5">
-        <v>1.084414960379206</v>
+        <v>0.06645175373174972</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007647602440909817</v>
+        <v>0.0008409137106937397</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6184253385586089</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01987315443989823</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7720666827107152</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2514964954170011</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.015196698640608</v>
+        <v>1.237815865171523</v>
       </c>
       <c r="O5">
-        <v>2.235919903280305</v>
+        <v>2.750559900907064</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.34486351265025</v>
+        <v>0.8966828422978779</v>
       </c>
       <c r="C6">
-        <v>1.350828101675688</v>
+        <v>0.06623955807742021</v>
       </c>
       <c r="D6">
-        <v>0.1570623949635035</v>
+        <v>0.2560568868538127</v>
       </c>
       <c r="E6">
-        <v>1.075419366476922</v>
+        <v>0.06634864474775526</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007653380905711506</v>
+        <v>0.0008410918133229733</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6185684110819309</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01988514579069856</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7666649723580008</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2504962013034771</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.015453198108432</v>
+        <v>1.240022598869629</v>
       </c>
       <c r="O6">
-        <v>2.221300586338387</v>
+        <v>2.749663334399543</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.584837983571788</v>
+        <v>0.9377818736986683</v>
       </c>
       <c r="C7">
-        <v>1.426805742308886</v>
+        <v>0.06853814276583847</v>
       </c>
       <c r="D7">
-        <v>0.165642352830929</v>
+        <v>0.26161272905685</v>
       </c>
       <c r="E7">
-        <v>1.138262270088973</v>
+        <v>0.06707076569167114</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007613379441758686</v>
+        <v>0.0008398634144569719</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6176524259336951</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01980281631723413</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8041856279797059</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2574629223992133</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.013905054040279</v>
+        <v>1.224813428948194</v>
       </c>
       <c r="O7">
-        <v>2.323550029338918</v>
+        <v>2.756248369568681</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.676809910570171</v>
+        <v>1.120277035650531</v>
       </c>
       <c r="C8">
-        <v>1.772812145627597</v>
+        <v>0.07866411214409652</v>
       </c>
       <c r="D8">
-        <v>0.2047137996865871</v>
+        <v>0.2868118939635593</v>
       </c>
       <c r="E8">
-        <v>1.427438889848546</v>
+        <v>0.07042110105166088</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007439041942542096</v>
+        <v>0.0008346340917523998</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.615569520181058</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01946196653866616</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9705137735734013</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2888179229705514</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.013425909602191</v>
+        <v>1.16041158911656</v>
       </c>
       <c r="O8">
-        <v>2.79678755852521</v>
+        <v>2.794539497980423</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.994328627279231</v>
+        <v>1.483291880541543</v>
       </c>
       <c r="C9">
-        <v>2.509588931386759</v>
+        <v>0.0985215424854573</v>
       </c>
       <c r="D9">
-        <v>0.2877057149227795</v>
+        <v>0.3389574278280918</v>
       </c>
       <c r="E9">
-        <v>2.060177310609589</v>
+        <v>0.07762718062780394</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007099309473889791</v>
+        <v>0.0008250431336048835</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6190521517812329</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.01887520094309281</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.300370766467751</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.352802869084158</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.042537842844396</v>
+        <v>1.044287082322477</v>
       </c>
       <c r="O9">
-        <v>3.837924283000774</v>
+        <v>2.905660424357677</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.878508353076199</v>
+        <v>1.754244434899931</v>
       </c>
       <c r="C10">
-        <v>3.112011678754129</v>
+        <v>0.1131763217099007</v>
       </c>
       <c r="D10">
-        <v>0.3551434669680305</v>
+        <v>0.3792163828498616</v>
       </c>
       <c r="E10">
-        <v>2.596140364558053</v>
+        <v>0.08335763986254108</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006843650430084263</v>
+        <v>0.0008183771637543347</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6267541351056423</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01849481431379374</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.545970962945773</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4016404904189415</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.091559591748762</v>
+        <v>0.9655810229923301</v>
       </c>
       <c r="O10">
-        <v>4.715593492340219</v>
+        <v>3.012149291803723</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.79882278905711</v>
+        <v>1.878695173874291</v>
       </c>
       <c r="C11">
-        <v>3.407623676611991</v>
+        <v>0.1198731859047797</v>
       </c>
       <c r="D11">
-        <v>0.3880410235568377</v>
+        <v>0.3980213430242401</v>
       </c>
       <c r="E11">
-        <v>2.865889968181889</v>
+        <v>0.08607074538548076</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006723655072240058</v>
+        <v>0.0008154216309988833</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6315006378485748</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01833300327256993</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.658648348727098</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4243275585079402</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.122854705176053</v>
+        <v>0.9313090116962055</v>
       </c>
       <c r="O11">
-        <v>5.153410058145028</v>
+        <v>3.06667481544261</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.15924596008574</v>
+        <v>1.926016243284494</v>
       </c>
       <c r="C12">
-        <v>3.523664174336886</v>
+        <v>0.122414880975839</v>
       </c>
       <c r="D12">
-        <v>0.4009138393509204</v>
+        <v>0.4052188105340946</v>
       </c>
       <c r="E12">
-        <v>2.973080399611106</v>
+        <v>0.0871144229662022</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006677398972694867</v>
+        <v>0.0008143130104299319</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.6334880003021652</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01827336522686007</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.701474457789431</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4329926395784014</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.136357771981238</v>
+        <v>0.9185603375585938</v>
       </c>
       <c r="O12">
-        <v>5.326428830749762</v>
+        <v>3.088258277953997</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.08103628051174</v>
+        <v>1.915815784501433</v>
       </c>
       <c r="C13">
-        <v>3.498470700106452</v>
+        <v>0.1218672031426848</v>
       </c>
       <c r="D13">
-        <v>0.3981210982086054</v>
+        <v>0.403665210344414</v>
       </c>
       <c r="E13">
-        <v>2.949744174360774</v>
+        <v>0.08688890749178313</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006687403021208294</v>
+        <v>0.00081455130923256</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.6330513500387198</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01828613621229902</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.692243733370873</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4311230637506043</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.133369069108653</v>
+        <v>0.9212956382386359</v>
       </c>
       <c r="O13">
-        <v>5.288811460846176</v>
+        <v>3.083567253157923</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.8282163503809</v>
+        <v>1.882584277187647</v>
       </c>
       <c r="C14">
-        <v>3.417081264621061</v>
+        <v>0.1200821694054781</v>
       </c>
       <c r="D14">
-        <v>0.3890910903581499</v>
+        <v>0.3986119162376269</v>
       </c>
       <c r="E14">
-        <v>2.874598159112693</v>
+        <v>0.08615627706375051</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006719867917719304</v>
+        <v>0.000815330215019299</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6316602649683531</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0183280638918486</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.662168395725473</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4250389195217963</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.123929990760004</v>
+        <v>0.9302555187009158</v>
       </c>
       <c r="O14">
-        <v>5.167487823324763</v>
+        <v>3.068431379285073</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.67500993275883</v>
+        <v>1.862255021994685</v>
       </c>
       <c r="C15">
-        <v>3.367797252696448</v>
+        <v>0.1189895747161955</v>
       </c>
       <c r="D15">
-        <v>0.3836174184146728</v>
+        <v>0.3955267620903982</v>
       </c>
       <c r="E15">
-        <v>2.829273368129691</v>
+        <v>0.08570967114030381</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006739637097405671</v>
+        <v>0.000815808679942262</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.6308332713327687</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.01835395956631558</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.643767549420431</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4213220348657103</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.118376224285939</v>
+        <v>0.9357738595421825</v>
       </c>
       <c r="O15">
-        <v>5.09417464267608</v>
+        <v>3.059283978147306</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.819856469529668</v>
+        <v>1.746137198645954</v>
       </c>
       <c r="C16">
-        <v>3.093204440169075</v>
+        <v>0.1127393913551202</v>
       </c>
       <c r="D16">
-        <v>0.353045725367565</v>
+        <v>0.3779978039589906</v>
       </c>
       <c r="E16">
-        <v>2.579134782260041</v>
+        <v>0.08318255476354608</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006851395838204307</v>
+        <v>0.0008185718211711854</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6264698928801806</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01850561680890994</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.538628130461944</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4001678360677943</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.08972339776885</v>
+        <v>0.9678523685926255</v>
       </c>
       <c r="O16">
-        <v>4.687888395821886</v>
+        <v>3.00871345430744</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.313171810528843</v>
+        <v>1.675223901563754</v>
       </c>
       <c r="C17">
-        <v>2.930884614329614</v>
+        <v>0.1089138195453927</v>
       </c>
       <c r="D17">
-        <v>0.3349187884785607</v>
+        <v>0.367374133786825</v>
       </c>
       <c r="E17">
-        <v>2.433116174580221</v>
+        <v>0.08166016442923052</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006918835404017867</v>
+        <v>0.0008202862727076145</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.624119183016262</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01860154445992723</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.474386711299843</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3873153022999389</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.074669825348977</v>
+        <v>0.9879301165188021</v>
       </c>
       <c r="O17">
-        <v>4.449553229810988</v>
+        <v>2.979290259775297</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.027475307779298</v>
+        <v>1.634547291494243</v>
       </c>
       <c r="C18">
-        <v>2.83947732879335</v>
+        <v>0.1067162179785441</v>
       </c>
       <c r="D18">
-        <v>0.3246944193388259</v>
+        <v>0.3613095189979276</v>
       </c>
       <c r="E18">
-        <v>2.351470936904107</v>
+        <v>0.08079446674848256</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006957298574447935</v>
+        <v>0.0008212796435335045</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6228833804434046</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.01865777502864052</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.437525089057232</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3799667556986321</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.066831081322519</v>
+        <v>0.9996219011808698</v>
       </c>
       <c r="O18">
-        <v>4.315972198135967</v>
+        <v>2.962935495632962</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.931656491640808</v>
+        <v>1.620793261793636</v>
       </c>
       <c r="C19">
-        <v>2.808838929765272</v>
+        <v>0.1059725828001774</v>
       </c>
       <c r="D19">
-        <v>0.3212648237466169</v>
+        <v>0.3592638460434898</v>
       </c>
       <c r="E19">
-        <v>2.324196806857657</v>
+        <v>0.08050303439480899</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006970272709273082</v>
+        <v>0.0008216172433134029</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6224845970514394</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.01867699438621795</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.425058945433165</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.377486017217521</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.064308695450677</v>
+        <v>1.003604933188466</v>
       </c>
       <c r="O19">
-        <v>4.271302956326593</v>
+        <v>2.957493932488148</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.366498097124122</v>
+        <v>1.682761111911958</v>
       </c>
       <c r="C20">
-        <v>2.947955352265069</v>
+        <v>0.1093207622925121</v>
       </c>
       <c r="D20">
-        <v>0.336826950031039</v>
+        <v>0.3685002563770183</v>
       </c>
       <c r="E20">
-        <v>2.44840985861299</v>
+        <v>0.0818211896009835</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006911691880502273</v>
+        <v>0.000820103017967526</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6243573082341811</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01859122340375396</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.481216032122148</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3886788896068083</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.076185242963447</v>
+        <v>0.9857778803099997</v>
       </c>
       <c r="O20">
-        <v>4.474551421645629</v>
+        <v>2.982363124047765</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.90212466205537</v>
+        <v>1.89233971463733</v>
       </c>
       <c r="C21">
-        <v>3.440866348490147</v>
+        <v>0.1206063098280197</v>
       </c>
       <c r="D21">
-        <v>0.3917312267972619</v>
+        <v>0.4000940682267355</v>
       </c>
       <c r="E21">
-        <v>2.896520469040667</v>
+        <v>0.08637101815858728</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006710357130416206</v>
+        <v>0.0008151011484604197</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.6320636112660267</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01831570412787542</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.670997801365587</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4268239198378154</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.126654146844473</v>
+        <v>0.9276174830903514</v>
       </c>
       <c r="O21">
-        <v>5.202911018446486</v>
+        <v>3.072851246041978</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.97735804488025</v>
+        <v>2.030455580474722</v>
       </c>
       <c r="C22">
-        <v>3.787660614359652</v>
+        <v>0.1280162343508096</v>
       </c>
       <c r="D22">
-        <v>0.4301057847697223</v>
+        <v>0.4211909854193721</v>
       </c>
       <c r="E22">
-        <v>3.219819998150129</v>
+        <v>0.0894400189522635</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006573797355721897</v>
+        <v>0.0008118935375516537</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6382131787642678</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.01814518502869245</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.795960632148905</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4521883740729322</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.169539701434275</v>
+        <v>0.8909480766327391</v>
       </c>
       <c r="O22">
-        <v>5.722330559555076</v>
+        <v>3.137476702439983</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.3957119807319</v>
+        <v>1.95662791434529</v>
       </c>
       <c r="C23">
-        <v>3.599882244032528</v>
+        <v>0.1240578072243892</v>
       </c>
       <c r="D23">
-        <v>0.4093555837116583</v>
+        <v>0.4098880886908773</v>
       </c>
       <c r="E23">
-        <v>3.043899668564336</v>
+        <v>0.08779295629429384</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006647260823333977</v>
+        <v>0.0008136000465707124</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6348252714282694</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.01823531302822623</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.729173347584577</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4386089301406741</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.145590162582977</v>
+        <v>0.9103932736097544</v>
       </c>
       <c r="O23">
-        <v>5.440410054429236</v>
+        <v>3.102461568383177</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.342372029321496</v>
+        <v>1.679353253039892</v>
       </c>
       <c r="C24">
-        <v>2.940231784503737</v>
+        <v>0.109136778063899</v>
       </c>
       <c r="D24">
-        <v>0.3359636632058596</v>
+        <v>0.3679910026224036</v>
       </c>
       <c r="E24">
-        <v>2.441488502602368</v>
+        <v>0.08174836046564593</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00069149224080812</v>
+        <v>0.0008201858433989878</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6242492924348255</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.01859588618939245</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.478128274623685</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3880622859646792</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.075497606997672</v>
+        <v>0.9867504434420251</v>
       </c>
       <c r="O24">
-        <v>4.463239139342534</v>
+        <v>2.980972139218238</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.341946550479634</v>
+        <v>1.384425898915737</v>
       </c>
       <c r="C25">
-        <v>2.301774028426166</v>
+        <v>0.09314308535162752</v>
       </c>
       <c r="D25">
-        <v>0.2643419646007459</v>
+        <v>0.3245301996765448</v>
       </c>
       <c r="E25">
-        <v>1.87928155748844</v>
+        <v>0.07560482978730221</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007191638384162308</v>
+        <v>0.000827569101209314</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6172471711778087</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.01902510348076092</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.210641019290733</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3351954949123552</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.030620552821446</v>
+        <v>1.074572440630646</v>
       </c>
       <c r="O25">
-        <v>3.54027969523176</v>
+        <v>2.87145532534845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.170033360203178</v>
+        <v>0.963223312315705</v>
       </c>
       <c r="C2">
-        <v>0.08140551456862255</v>
+        <v>0.03974516942150075</v>
       </c>
       <c r="D2">
-        <v>0.2938144398341649</v>
+        <v>0.5059138127533629</v>
       </c>
       <c r="E2">
-        <v>0.07137022586037389</v>
+        <v>0.158705431593404</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008332629776270204</v>
+        <v>0.002534080523199676</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6154987364715794</v>
+        <v>1.415813774585239</v>
       </c>
       <c r="J2">
-        <v>0.01937510567318723</v>
+        <v>0.05490357979274352</v>
       </c>
       <c r="K2">
-        <v>1.015794905010495</v>
+        <v>0.6249760980557255</v>
       </c>
       <c r="L2">
-        <v>0.2974719424214527</v>
+        <v>0.4624399593449908</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.143635621106707</v>
+        <v>2.443596874654283</v>
       </c>
       <c r="O2">
-        <v>2.8072522887812</v>
+        <v>6.118727321080826</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.026089868654907</v>
+        <v>0.9270537950513074</v>
       </c>
       <c r="C3">
-        <v>0.07345316375449329</v>
+        <v>0.03712838881840241</v>
       </c>
       <c r="D3">
-        <v>0.2737051873012035</v>
+        <v>0.5033804456136863</v>
       </c>
       <c r="E3">
-        <v>0.06866454236861586</v>
+        <v>0.1587916105771026</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008372905087951632</v>
+        <v>0.002536787998756027</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6162643239671013</v>
+        <v>1.423793513952614</v>
       </c>
       <c r="J3">
-        <v>0.01963319140624975</v>
+        <v>0.05511580796576698</v>
       </c>
       <c r="K3">
-        <v>0.884722897788464</v>
+        <v>0.5900869330664023</v>
       </c>
       <c r="L3">
-        <v>0.2725548676419152</v>
+        <v>0.4582616829314361</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.193050416222638</v>
+        <v>2.465075704722731</v>
       </c>
       <c r="O3">
-        <v>2.773040932141015</v>
+        <v>6.145136798158575</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9382633550484627</v>
+        <v>0.9052260422830614</v>
       </c>
       <c r="C4">
-        <v>0.06856502683141485</v>
+        <v>0.03550481443962639</v>
       </c>
       <c r="D4">
-        <v>0.2616781001259767</v>
+        <v>0.5020343173756601</v>
       </c>
       <c r="E4">
-        <v>0.06707930286585118</v>
+        <v>0.1588988353522254</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008398491464165176</v>
+        <v>0.002538540710204663</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6176427562911648</v>
+        <v>1.4292311384879</v>
       </c>
       <c r="J4">
-        <v>0.01980186520656835</v>
+        <v>0.0552545306654304</v>
       </c>
       <c r="K4">
-        <v>0.804625036601351</v>
+        <v>0.5688925569086791</v>
       </c>
       <c r="L4">
-        <v>0.2575447632698626</v>
+        <v>0.4558867513708122</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.224636929183189</v>
+        <v>2.478934766275295</v>
       </c>
       <c r="O4">
-        <v>2.756330347201526</v>
+        <v>6.163844719623853</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9025979530383381</v>
+        <v>0.8964274500786189</v>
       </c>
       <c r="C5">
-        <v>0.06657084867185148</v>
+        <v>0.03483896425977662</v>
       </c>
       <c r="D5">
-        <v>0.2568534978918819</v>
+        <v>0.5015385409784585</v>
       </c>
       <c r="E5">
-        <v>0.06645175373174972</v>
+        <v>0.1589562204919446</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008409137106937397</v>
+        <v>0.002539277730847644</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6184253385586089</v>
+        <v>1.431582428596176</v>
       </c>
       <c r="J5">
-        <v>0.01987315443989823</v>
+        <v>0.0553131819292485</v>
       </c>
       <c r="K5">
-        <v>0.7720666827107152</v>
+        <v>0.5603135005771946</v>
       </c>
       <c r="L5">
-        <v>0.2514964954170011</v>
+        <v>0.4549670069863794</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.237815865171523</v>
+        <v>2.484751228659984</v>
       </c>
       <c r="O5">
-        <v>2.750559900907064</v>
+        <v>6.172095643176903</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8966828422978779</v>
+        <v>0.894972293730433</v>
       </c>
       <c r="C6">
-        <v>0.06623955807742021</v>
+        <v>0.03472814510985955</v>
       </c>
       <c r="D6">
-        <v>0.2560568868538127</v>
+        <v>0.5014594095241875</v>
       </c>
       <c r="E6">
-        <v>0.06634864474775526</v>
+        <v>0.1589665770849891</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008410918133229733</v>
+        <v>0.0025394014900611</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6185684110819309</v>
+        <v>1.431981040778613</v>
       </c>
       <c r="J6">
-        <v>0.01988514579069856</v>
+        <v>0.0553230491533272</v>
       </c>
       <c r="K6">
-        <v>0.7666649723580008</v>
+        <v>0.5588924638488493</v>
       </c>
       <c r="L6">
-        <v>0.2504962013034771</v>
+        <v>0.4548171910745822</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.240022598869629</v>
+        <v>2.485727243666556</v>
       </c>
       <c r="O6">
-        <v>2.749663334399543</v>
+        <v>6.173503606288108</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9377818736986683</v>
+        <v>0.90510699014024</v>
       </c>
       <c r="C7">
-        <v>0.06853814276583847</v>
+        <v>0.03549585166906155</v>
       </c>
       <c r="D7">
-        <v>0.26161272905685</v>
+        <v>0.5020274172721457</v>
       </c>
       <c r="E7">
-        <v>0.06707076569167114</v>
+        <v>0.1588995537928302</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008398634144569719</v>
+        <v>0.002538550557600057</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6176524259336951</v>
+        <v>1.429262300362446</v>
       </c>
       <c r="J7">
-        <v>0.01980281631723413</v>
+        <v>0.05525531306403497</v>
       </c>
       <c r="K7">
-        <v>0.8041856279797059</v>
+        <v>0.5687766218795502</v>
       </c>
       <c r="L7">
-        <v>0.2574629223992133</v>
+        <v>0.4558741525923722</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.224813428948194</v>
+        <v>2.479012525648761</v>
       </c>
       <c r="O7">
-        <v>2.756248369568681</v>
+        <v>6.163953453836911</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.120277035650531</v>
+        <v>0.9506735136136513</v>
       </c>
       <c r="C8">
-        <v>0.07866411214409652</v>
+        <v>0.03884640773859616</v>
       </c>
       <c r="D8">
-        <v>0.2868118939635593</v>
+        <v>0.5049969317174998</v>
       </c>
       <c r="E8">
-        <v>0.07042110105166088</v>
+        <v>0.1587238936792268</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008346340917523998</v>
+        <v>0.002534995357389703</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.615569520181058</v>
+        <v>1.418453592257833</v>
       </c>
       <c r="J8">
-        <v>0.01946196653866616</v>
+        <v>0.05497501276402073</v>
       </c>
       <c r="K8">
-        <v>0.9705137735734013</v>
+        <v>0.6128993787303898</v>
       </c>
       <c r="L8">
-        <v>0.2888179229705514</v>
+        <v>0.4609598262125445</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.16041158911656</v>
+        <v>2.450863553226245</v>
       </c>
       <c r="O8">
-        <v>2.794539497980423</v>
+        <v>6.127316342165301</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.483291880541543</v>
+        <v>1.043021858287176</v>
       </c>
       <c r="C9">
-        <v>0.0985215424854573</v>
+        <v>0.04528293060010924</v>
       </c>
       <c r="D9">
-        <v>0.3389574278280918</v>
+        <v>0.5124762930391142</v>
       </c>
       <c r="E9">
-        <v>0.07762718062780394</v>
+        <v>0.1588090054569555</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008250431336048835</v>
+        <v>0.002528737127565443</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6190521517812329</v>
+        <v>1.401521797431293</v>
       </c>
       <c r="J9">
-        <v>0.01887520094309281</v>
+        <v>0.05449188141749595</v>
       </c>
       <c r="K9">
-        <v>1.300370766467751</v>
+        <v>0.7012107418910603</v>
       </c>
       <c r="L9">
-        <v>0.352802869084158</v>
+        <v>0.472439308063187</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.044287082322477</v>
+        <v>2.400983825674579</v>
       </c>
       <c r="O9">
-        <v>2.905660424357677</v>
+        <v>6.075225345968988</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.754244434899931</v>
+        <v>1.11266680435125</v>
       </c>
       <c r="C10">
-        <v>0.1131763217099007</v>
+        <v>0.0499304546242314</v>
       </c>
       <c r="D10">
-        <v>0.3792163828498616</v>
+        <v>0.5189753306755875</v>
       </c>
       <c r="E10">
-        <v>0.08335763986254108</v>
+        <v>0.1591317789329807</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008183771637543347</v>
+        <v>0.002524569886878254</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6267541351056423</v>
+        <v>1.39167526861106</v>
       </c>
       <c r="J10">
-        <v>0.01849481431379374</v>
+        <v>0.05417717936496924</v>
       </c>
       <c r="K10">
-        <v>1.545970962945773</v>
+        <v>0.7671624631603891</v>
       </c>
       <c r="L10">
-        <v>0.4016404904189415</v>
+        <v>0.4817858088972713</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9655810229923301</v>
+        <v>2.367574525641791</v>
       </c>
       <c r="O10">
-        <v>3.012149291803723</v>
+        <v>6.048971776663251</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.878695173874291</v>
+        <v>1.144734808905383</v>
       </c>
       <c r="C11">
-        <v>0.1198731859047797</v>
+        <v>0.05202713642208323</v>
       </c>
       <c r="D11">
-        <v>0.3980213430242401</v>
+        <v>0.5221487797031159</v>
       </c>
       <c r="E11">
-        <v>0.08607074538548076</v>
+        <v>0.159334790203733</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008154216309988833</v>
+        <v>0.002522766706599976</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6315006378485748</v>
+        <v>1.387757670768636</v>
       </c>
       <c r="J11">
-        <v>0.01833300327256993</v>
+        <v>0.05404268890287867</v>
       </c>
       <c r="K11">
-        <v>1.658648348727098</v>
+        <v>0.797394012635749</v>
       </c>
       <c r="L11">
-        <v>0.4243275585079402</v>
+        <v>0.486234765032961</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9313090116962055</v>
+        <v>2.353077432871054</v>
       </c>
       <c r="O11">
-        <v>3.06667481544261</v>
+        <v>6.039632948654571</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.926016243284494</v>
+        <v>1.156933032974564</v>
       </c>
       <c r="C12">
-        <v>0.122414880975839</v>
+        <v>0.05281857482189878</v>
       </c>
       <c r="D12">
-        <v>0.4052188105340946</v>
+        <v>0.5233815691999268</v>
       </c>
       <c r="E12">
-        <v>0.0871144229662022</v>
+        <v>0.1594197130513315</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008143130104299319</v>
+        <v>0.00252209712454821</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6334880003021652</v>
+        <v>1.386354836660473</v>
       </c>
       <c r="J12">
-        <v>0.01827336522686007</v>
+        <v>0.05399300247982186</v>
       </c>
       <c r="K12">
-        <v>1.701474457789431</v>
+        <v>0.8088744779879278</v>
       </c>
       <c r="L12">
-        <v>0.4329926395784014</v>
+        <v>0.4879476982384716</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9185603375585938</v>
+        <v>2.34768850386706</v>
       </c>
       <c r="O12">
-        <v>3.088258277953997</v>
+        <v>6.036470581287347</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.915815784501433</v>
+        <v>1.154303503564876</v>
       </c>
       <c r="C13">
-        <v>0.1218672031426848</v>
+        <v>0.05264823710979272</v>
       </c>
       <c r="D13">
-        <v>0.403665210344414</v>
+        <v>0.5231146860324429</v>
       </c>
       <c r="E13">
-        <v>0.08688890749178313</v>
+        <v>0.1594010660138814</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00081455130923256</v>
+        <v>0.002522240742944915</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6330513500387198</v>
+        <v>1.38665337542264</v>
       </c>
       <c r="J13">
-        <v>0.01828613621229902</v>
+        <v>0.05400364816278902</v>
       </c>
       <c r="K13">
-        <v>1.692243733370873</v>
+        <v>0.8064005215563839</v>
       </c>
       <c r="L13">
-        <v>0.4311230637506043</v>
+        <v>0.4875775350831333</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9212956382386359</v>
+        <v>2.348844622649054</v>
       </c>
       <c r="O13">
-        <v>3.083567253157923</v>
+        <v>6.037135024554033</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.882584277187647</v>
+        <v>1.145737270909564</v>
       </c>
       <c r="C14">
-        <v>0.1200821694054781</v>
+        <v>0.05209229930574111</v>
       </c>
       <c r="D14">
-        <v>0.3986119162376269</v>
+        <v>0.5222495800378368</v>
       </c>
       <c r="E14">
-        <v>0.08615627706375051</v>
+        <v>0.1593416157674561</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000815330215019299</v>
+        <v>0.002522711354838789</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6316602649683531</v>
+        <v>1.387640642410837</v>
       </c>
       <c r="J14">
-        <v>0.0183280638918486</v>
+        <v>0.05403857630048758</v>
       </c>
       <c r="K14">
-        <v>1.662168395725473</v>
+        <v>0.798337870896404</v>
       </c>
       <c r="L14">
-        <v>0.4250389195217963</v>
+        <v>0.4863751245376733</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9302555187009158</v>
+        <v>2.352632062094587</v>
       </c>
       <c r="O14">
-        <v>3.068431379285073</v>
+        <v>6.039365284756713</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.862255021994685</v>
+        <v>1.140497315635912</v>
       </c>
       <c r="C15">
-        <v>0.1189895747161955</v>
+        <v>0.05175144154603117</v>
       </c>
       <c r="D15">
-        <v>0.3955267620903982</v>
+        <v>0.5217237203776079</v>
       </c>
       <c r="E15">
-        <v>0.08570967114030381</v>
+        <v>0.1593062477763105</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000815808679942262</v>
+        <v>0.002523001340789062</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6308332713327687</v>
+        <v>1.388255875648944</v>
       </c>
       <c r="J15">
-        <v>0.01835395956631558</v>
+        <v>0.05406013243369046</v>
       </c>
       <c r="K15">
-        <v>1.643767549420431</v>
+        <v>0.7934034703227724</v>
       </c>
       <c r="L15">
-        <v>0.4213220348657103</v>
+        <v>0.4856422828399616</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9357738595421825</v>
+        <v>2.354965106227807</v>
       </c>
       <c r="O15">
-        <v>3.059283978147306</v>
+        <v>6.040780082830736</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.746137198645954</v>
+        <v>1.110578790238691</v>
       </c>
       <c r="C16">
-        <v>0.1127393913551202</v>
+        <v>0.0497930782811693</v>
       </c>
       <c r="D16">
-        <v>0.3779978039589906</v>
+        <v>0.5187722937381096</v>
       </c>
       <c r="E16">
-        <v>0.08318255476354608</v>
+        <v>0.1591196394402772</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008185718211711854</v>
+        <v>0.002524689585172242</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6264698928801806</v>
+        <v>1.391942586918809</v>
       </c>
       <c r="J16">
-        <v>0.01850561680890994</v>
+        <v>0.05418614269968014</v>
       </c>
       <c r="K16">
-        <v>1.538628130461944</v>
+        <v>0.7651913320649442</v>
       </c>
       <c r="L16">
-        <v>0.4001678360677943</v>
+        <v>0.4814990146384588</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9678523685926255</v>
+        <v>2.368536050527004</v>
       </c>
       <c r="O16">
-        <v>3.00871345430744</v>
+        <v>6.049634455650789</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.675223901563754</v>
+        <v>1.092323107538789</v>
       </c>
       <c r="C17">
-        <v>0.1089138195453927</v>
+        <v>0.04858719440973402</v>
       </c>
       <c r="D17">
-        <v>0.367374133786825</v>
+        <v>0.5170171753582764</v>
       </c>
       <c r="E17">
-        <v>0.08166016442923052</v>
+        <v>0.1590195277172626</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008202862727076145</v>
+        <v>0.002525748921082607</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.624119183016262</v>
+        <v>1.394348051129306</v>
       </c>
       <c r="J17">
-        <v>0.01860154445992723</v>
+        <v>0.05426566312961789</v>
       </c>
       <c r="K17">
-        <v>1.474386711299843</v>
+        <v>0.7479425184558011</v>
       </c>
       <c r="L17">
-        <v>0.3873153022999389</v>
+        <v>0.4790076546560442</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9879301165188021</v>
+        <v>2.377040923632437</v>
       </c>
       <c r="O17">
-        <v>2.979290259775297</v>
+        <v>6.055732990394176</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.634547291494243</v>
+        <v>1.081859315426698</v>
       </c>
       <c r="C18">
-        <v>0.1067162179785441</v>
+        <v>0.04789195548178782</v>
       </c>
       <c r="D18">
-        <v>0.3613095189979276</v>
+        <v>0.5160281110273246</v>
       </c>
       <c r="E18">
-        <v>0.08079446674848256</v>
+        <v>0.1589672359224288</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008212796435335045</v>
+        <v>0.002526366935088098</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6228833804434046</v>
+        <v>1.395784479685616</v>
       </c>
       <c r="J18">
-        <v>0.01865777502864052</v>
+        <v>0.0543122174138011</v>
       </c>
       <c r="K18">
-        <v>1.437525089057232</v>
+        <v>0.7380431215090937</v>
       </c>
       <c r="L18">
-        <v>0.3799667556986321</v>
+        <v>0.4775932590402618</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9996219011808698</v>
+        <v>2.381998679220558</v>
       </c>
       <c r="O18">
-        <v>2.962935495632962</v>
+        <v>6.059485836642551</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.620793261793636</v>
+        <v>1.078322729151608</v>
       </c>
       <c r="C19">
-        <v>0.1059725828001774</v>
+        <v>0.04765627714688492</v>
       </c>
       <c r="D19">
-        <v>0.3592638460434898</v>
+        <v>0.515696744299035</v>
       </c>
       <c r="E19">
-        <v>0.08050303439480899</v>
+        <v>0.1589504403187227</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008216172433134029</v>
+        <v>0.002526577682142084</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6224845970514394</v>
+        <v>1.396279912728104</v>
       </c>
       <c r="J19">
-        <v>0.01867699438621795</v>
+        <v>0.05432812021888722</v>
       </c>
       <c r="K19">
-        <v>1.425058945433165</v>
+        <v>0.7346950952233726</v>
       </c>
       <c r="L19">
-        <v>0.377486017217521</v>
+        <v>0.4771175626077735</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.003604933188466</v>
+        <v>2.38368862160992</v>
       </c>
       <c r="O19">
-        <v>2.957493932488148</v>
+        <v>6.060798599991216</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.682761111911958</v>
+        <v>1.094262695047604</v>
       </c>
       <c r="C20">
-        <v>0.1093207622925121</v>
+        <v>0.04871573329911882</v>
       </c>
       <c r="D20">
-        <v>0.3685002563770183</v>
+        <v>0.5172018968866752</v>
       </c>
       <c r="E20">
-        <v>0.0818211896009835</v>
+        <v>0.1590296375347968</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000820103017967526</v>
+        <v>0.002525635251769483</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6243573082341811</v>
+        <v>1.394086514233031</v>
       </c>
       <c r="J20">
-        <v>0.01859122340375396</v>
+        <v>0.05425711359892826</v>
       </c>
       <c r="K20">
-        <v>1.481216032122148</v>
+        <v>0.7497764463315661</v>
       </c>
       <c r="L20">
-        <v>0.3886788896068083</v>
+        <v>0.4792709434346563</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9857778803099997</v>
+        <v>2.376128736898188</v>
       </c>
       <c r="O20">
-        <v>2.982363124047765</v>
+        <v>6.055058423897748</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.89233971463733</v>
+        <v>1.148251900823482</v>
       </c>
       <c r="C21">
-        <v>0.1206063098280197</v>
+        <v>0.05225566046829044</v>
       </c>
       <c r="D21">
-        <v>0.4000940682267355</v>
+        <v>0.5225028403699952</v>
       </c>
       <c r="E21">
-        <v>0.08637101815858728</v>
+        <v>0.1593588596083038</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008151011484604197</v>
+        <v>0.002522572765750508</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6320636112660267</v>
+        <v>1.387348469358265</v>
       </c>
       <c r="J21">
-        <v>0.01831570412787542</v>
+        <v>0.05402828338206511</v>
       </c>
       <c r="K21">
-        <v>1.670997801365587</v>
+        <v>0.8007051914464114</v>
       </c>
       <c r="L21">
-        <v>0.4268239198378154</v>
+        <v>0.4867275372043878</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9276174830903514</v>
+        <v>2.351516863416055</v>
       </c>
       <c r="O21">
-        <v>3.072851246041978</v>
+        <v>6.038700055119989</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.030455580474722</v>
+        <v>1.183855835735358</v>
       </c>
       <c r="C22">
-        <v>0.1280162343508096</v>
+        <v>0.05455445760954092</v>
       </c>
       <c r="D22">
-        <v>0.4211909854193721</v>
+        <v>0.5261483707697607</v>
       </c>
       <c r="E22">
-        <v>0.0894400189522635</v>
+        <v>0.1596209139940896</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008118935375516537</v>
+        <v>0.002520648415698225</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6382131787642678</v>
+        <v>1.383414964035097</v>
       </c>
       <c r="J22">
-        <v>0.01814518502869245</v>
+        <v>0.05388596805579571</v>
       </c>
       <c r="K22">
-        <v>1.795960632148905</v>
+        <v>0.8341788362755267</v>
       </c>
       <c r="L22">
-        <v>0.4521883740729322</v>
+        <v>0.49176521489251</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8909480766327391</v>
+        <v>2.336019158025985</v>
       </c>
       <c r="O22">
-        <v>3.137476702439983</v>
+        <v>6.030188940045861</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.95662791434529</v>
+        <v>1.164824421535457</v>
       </c>
       <c r="C23">
-        <v>0.1240578072243892</v>
+        <v>0.05332890023819914</v>
       </c>
       <c r="D23">
-        <v>0.4098880886908773</v>
+        <v>0.5241861593443957</v>
       </c>
       <c r="E23">
-        <v>0.08779295629429384</v>
+        <v>0.1594767707807598</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008136000465707124</v>
+        <v>0.002521668437290188</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6348252714282694</v>
+        <v>1.38547135559871</v>
       </c>
       <c r="J23">
-        <v>0.01823531302822623</v>
+        <v>0.05396126355280639</v>
       </c>
       <c r="K23">
-        <v>1.729173347584577</v>
+        <v>0.8162962510637044</v>
       </c>
       <c r="L23">
-        <v>0.4386089301406741</v>
+        <v>0.4890615202215258</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9103932736097544</v>
+        <v>2.344236808486844</v>
       </c>
       <c r="O23">
-        <v>3.102461568383177</v>
+        <v>6.034532146501846</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.679353253039892</v>
+        <v>1.09338570891137</v>
       </c>
       <c r="C24">
-        <v>0.109136778063899</v>
+        <v>0.04865762697265552</v>
       </c>
       <c r="D24">
-        <v>0.3679910026224036</v>
+        <v>0.5171183220503366</v>
       </c>
       <c r="E24">
-        <v>0.08174836046564593</v>
+        <v>0.1590250504880331</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008201858433989878</v>
+        <v>0.002525686613715956</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6242492924348255</v>
+        <v>1.394204588421367</v>
       </c>
       <c r="J24">
-        <v>0.01859588618939245</v>
+        <v>0.05426097623433002</v>
       </c>
       <c r="K24">
-        <v>1.478128274623685</v>
+        <v>0.748947273992087</v>
       </c>
       <c r="L24">
-        <v>0.3880622859646792</v>
+        <v>0.4791518547474283</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9867504434420251</v>
+        <v>2.376540924106113</v>
       </c>
       <c r="O24">
-        <v>2.980972139218238</v>
+        <v>6.055362626861637</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.384425898915737</v>
+        <v>1.01772167936096</v>
       </c>
       <c r="C25">
-        <v>0.09314308535162752</v>
+        <v>0.04355599086622419</v>
       </c>
       <c r="D25">
-        <v>0.3245301996765448</v>
+        <v>0.5102762128848326</v>
       </c>
       <c r="E25">
-        <v>0.07560482978730221</v>
+        <v>0.1587401609321937</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000827569101209314</v>
+        <v>0.002530354204184289</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6172471711778087</v>
+        <v>1.405646446858938</v>
       </c>
       <c r="J25">
-        <v>0.01902510348076092</v>
+        <v>0.05461548999927723</v>
       </c>
       <c r="K25">
-        <v>1.210641019290733</v>
+        <v>0.6771309496192259</v>
       </c>
       <c r="L25">
-        <v>0.3351954949123552</v>
+        <v>0.4691731312010177</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.074572440630646</v>
+        <v>2.413908677023045</v>
       </c>
       <c r="O25">
-        <v>2.87145532534845</v>
+        <v>6.087205112400824</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.963223312315705</v>
+        <v>1.170033360203178</v>
       </c>
       <c r="C2">
-        <v>0.03974516942150075</v>
+        <v>0.08140551456851597</v>
       </c>
       <c r="D2">
-        <v>0.5059138127533629</v>
+        <v>0.2938144398341365</v>
       </c>
       <c r="E2">
-        <v>0.158705431593404</v>
+        <v>0.0713702258603881</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002534080523199676</v>
+        <v>0.0008332629776257229</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.415813774585239</v>
+        <v>0.6154987364715794</v>
       </c>
       <c r="J2">
-        <v>0.05490357979274352</v>
+        <v>0.01937510567316902</v>
       </c>
       <c r="K2">
-        <v>0.6249760980557255</v>
+        <v>1.015794905010324</v>
       </c>
       <c r="L2">
-        <v>0.4624399593449908</v>
+        <v>0.2974719424214385</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.443596874654283</v>
+        <v>1.143635621106696</v>
       </c>
       <c r="O2">
-        <v>6.118727321080826</v>
+        <v>2.807252288781115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9270537950513074</v>
+        <v>1.026089868655049</v>
       </c>
       <c r="C3">
-        <v>0.03712838881840241</v>
+        <v>0.0734531637546425</v>
       </c>
       <c r="D3">
-        <v>0.5033804456136863</v>
+        <v>0.2737051873012604</v>
       </c>
       <c r="E3">
-        <v>0.1587916105771026</v>
+        <v>0.06866454236861586</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002536787998756027</v>
+        <v>0.0008372905087943609</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.423793513952614</v>
+        <v>0.6162643239670871</v>
       </c>
       <c r="J3">
-        <v>0.05511580796576698</v>
+        <v>0.01963319140630038</v>
       </c>
       <c r="K3">
-        <v>0.5900869330664023</v>
+        <v>0.8847228977884924</v>
       </c>
       <c r="L3">
-        <v>0.4582616829314361</v>
+        <v>0.2725548676419294</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.465075704722731</v>
+        <v>1.193050416222562</v>
       </c>
       <c r="O3">
-        <v>6.145136798158575</v>
+        <v>2.773040932141072</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9052260422830614</v>
+        <v>0.9382633550484343</v>
       </c>
       <c r="C4">
-        <v>0.03550481443962639</v>
+        <v>0.06856502683118038</v>
       </c>
       <c r="D4">
-        <v>0.5020343173756601</v>
+        <v>0.261678100125792</v>
       </c>
       <c r="E4">
-        <v>0.1588988353522254</v>
+        <v>0.06707930286585118</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002538540710204663</v>
+        <v>0.0008398491464405174</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.4292311384879</v>
+        <v>0.6176427562911719</v>
       </c>
       <c r="J4">
-        <v>0.0552545306654304</v>
+        <v>0.0198018652064782</v>
       </c>
       <c r="K4">
-        <v>0.5688925569086791</v>
+        <v>0.8046250366014362</v>
       </c>
       <c r="L4">
-        <v>0.4558867513708122</v>
+        <v>0.2575447632698342</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.478934766275295</v>
+        <v>1.224636929183244</v>
       </c>
       <c r="O4">
-        <v>6.163844719623853</v>
+        <v>2.75633034720147</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8964274500786189</v>
+        <v>0.9025979530382244</v>
       </c>
       <c r="C5">
-        <v>0.03483896425977662</v>
+        <v>0.06657084867176621</v>
       </c>
       <c r="D5">
-        <v>0.5015385409784585</v>
+        <v>0.2568534978919672</v>
       </c>
       <c r="E5">
-        <v>0.1589562204919446</v>
+        <v>0.06645175373174972</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002539277730847644</v>
+        <v>0.0008409137107543399</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.431582428596176</v>
+        <v>0.6184253385585912</v>
       </c>
       <c r="J5">
-        <v>0.0553131819292485</v>
+        <v>0.01987315443990667</v>
       </c>
       <c r="K5">
-        <v>0.5603135005771946</v>
+        <v>0.7720666827107436</v>
       </c>
       <c r="L5">
-        <v>0.4549670069863794</v>
+        <v>0.2514964954170011</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.484751228659984</v>
+        <v>1.237815865171514</v>
       </c>
       <c r="O5">
-        <v>6.172095643176903</v>
+        <v>2.75055990090712</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.894972293730433</v>
+        <v>0.8966828422977642</v>
       </c>
       <c r="C6">
-        <v>0.03472814510985955</v>
+        <v>0.06623955807732784</v>
       </c>
       <c r="D6">
-        <v>0.5014594095241875</v>
+        <v>0.2560568868536421</v>
       </c>
       <c r="E6">
-        <v>0.1589665770849891</v>
+        <v>0.06634864474775526</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0025394014900611</v>
+        <v>0.0008410918131802491</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.431981040778613</v>
+        <v>0.6185684110819061</v>
       </c>
       <c r="J6">
-        <v>0.0553230491533272</v>
+        <v>0.01988514579072431</v>
       </c>
       <c r="K6">
-        <v>0.5588924638488493</v>
+        <v>0.7666649723580292</v>
       </c>
       <c r="L6">
-        <v>0.4548171910745822</v>
+        <v>0.2504962013033492</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.485727243666556</v>
+        <v>1.240022598869684</v>
       </c>
       <c r="O6">
-        <v>6.173503606288108</v>
+        <v>2.749663334399514</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.90510699014024</v>
+        <v>0.9377818736986683</v>
       </c>
       <c r="C7">
-        <v>0.03549585166906155</v>
+        <v>0.0685381427657461</v>
       </c>
       <c r="D7">
-        <v>0.5020274172721457</v>
+        <v>0.2616127290566084</v>
       </c>
       <c r="E7">
-        <v>0.1588995537928302</v>
+        <v>0.06707076569168713</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002538550557600057</v>
+        <v>0.0008398634143975337</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.429262300362446</v>
+        <v>0.6176524259336951</v>
       </c>
       <c r="J7">
-        <v>0.05525531306403497</v>
+        <v>0.0198028163172399</v>
       </c>
       <c r="K7">
-        <v>0.5687766218795502</v>
+        <v>0.8041856279797344</v>
       </c>
       <c r="L7">
-        <v>0.4558741525923722</v>
+        <v>0.2574629223992559</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.479012525648761</v>
+        <v>1.224813428948186</v>
       </c>
       <c r="O7">
-        <v>6.163953453836911</v>
+        <v>2.756248369568681</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9506735136136513</v>
+        <v>1.120277035650474</v>
       </c>
       <c r="C8">
-        <v>0.03884640773859616</v>
+        <v>0.07866411214395441</v>
       </c>
       <c r="D8">
-        <v>0.5049969317174998</v>
+        <v>0.2868118939634314</v>
       </c>
       <c r="E8">
-        <v>0.1587238936792268</v>
+        <v>0.07042110105163957</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002534995357389703</v>
+        <v>0.0008346340917517763</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.418453592257833</v>
+        <v>0.6155695201810758</v>
       </c>
       <c r="J8">
-        <v>0.05497501276402073</v>
+        <v>0.01946196653862309</v>
       </c>
       <c r="K8">
-        <v>0.6128993787303898</v>
+        <v>0.9705137735734013</v>
       </c>
       <c r="L8">
-        <v>0.4609598262125445</v>
+        <v>0.2888179229704946</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.450863553226245</v>
+        <v>1.160411589116611</v>
       </c>
       <c r="O8">
-        <v>6.127316342165301</v>
+        <v>2.794539497980452</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.043021858287176</v>
+        <v>1.483291880541458</v>
       </c>
       <c r="C9">
-        <v>0.04528293060010924</v>
+        <v>0.09852154248486045</v>
       </c>
       <c r="D9">
-        <v>0.5124762930391142</v>
+        <v>0.3389574278280207</v>
       </c>
       <c r="E9">
-        <v>0.1588090054569555</v>
+        <v>0.07762718062780394</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002528737127565443</v>
+        <v>0.0008250431336331857</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.401521797431293</v>
+        <v>0.6190521517812257</v>
       </c>
       <c r="J9">
-        <v>0.05449188141749595</v>
+        <v>0.01887520094312567</v>
       </c>
       <c r="K9">
-        <v>0.7012107418910603</v>
+        <v>1.300370766467779</v>
       </c>
       <c r="L9">
-        <v>0.472439308063187</v>
+        <v>0.3528028690842007</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.400983825674579</v>
+        <v>1.044287082322469</v>
       </c>
       <c r="O9">
-        <v>6.075225345968988</v>
+        <v>2.905660424357677</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.11266680435125</v>
+        <v>1.75424443489996</v>
       </c>
       <c r="C10">
-        <v>0.0499304546242314</v>
+        <v>0.1131763217101422</v>
       </c>
       <c r="D10">
-        <v>0.5189753306755875</v>
+        <v>0.3792163828499611</v>
       </c>
       <c r="E10">
-        <v>0.1591317789329807</v>
+        <v>0.08335763986253752</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002524569886878254</v>
+        <v>0.0008183771637828019</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.39167526861106</v>
+        <v>0.6267541351056636</v>
       </c>
       <c r="J10">
-        <v>0.05417717936496924</v>
+        <v>0.01849481431379996</v>
       </c>
       <c r="K10">
-        <v>0.7671624631603891</v>
+        <v>1.545970962945802</v>
       </c>
       <c r="L10">
-        <v>0.4817858088972713</v>
+        <v>0.4016404904189841</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.367574525641791</v>
+        <v>0.9655810229923176</v>
       </c>
       <c r="O10">
-        <v>6.048971776663251</v>
+        <v>3.01214929180378</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.144734808905383</v>
+        <v>1.878695173874689</v>
       </c>
       <c r="C11">
-        <v>0.05202713642208323</v>
+        <v>0.1198731859049929</v>
       </c>
       <c r="D11">
-        <v>0.5221487797031159</v>
+        <v>0.3980213430242117</v>
       </c>
       <c r="E11">
-        <v>0.159334790203733</v>
+        <v>0.086070745385463</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002522766706599976</v>
+        <v>0.0008154216310562082</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.387757670768636</v>
+        <v>0.6315006378485819</v>
       </c>
       <c r="J11">
-        <v>0.05404268890287867</v>
+        <v>0.01833300327260634</v>
       </c>
       <c r="K11">
-        <v>0.797394012635749</v>
+        <v>1.658648348727155</v>
       </c>
       <c r="L11">
-        <v>0.486234765032961</v>
+        <v>0.4243275585078408</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.353077432871054</v>
+        <v>0.9313090116961771</v>
       </c>
       <c r="O11">
-        <v>6.039632948654571</v>
+        <v>3.066674815442639</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.156933032974564</v>
+        <v>1.926016243284721</v>
       </c>
       <c r="C12">
-        <v>0.05281857482189878</v>
+        <v>0.1224148809758532</v>
       </c>
       <c r="D12">
-        <v>0.5233815691999268</v>
+        <v>0.4052188105339241</v>
       </c>
       <c r="E12">
-        <v>0.1594197130513315</v>
+        <v>0.08711442296618088</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00252209712454821</v>
+        <v>0.0008143130104606176</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.386354836660473</v>
+        <v>0.6334880003021723</v>
       </c>
       <c r="J12">
-        <v>0.05399300247982186</v>
+        <v>0.01827336522680412</v>
       </c>
       <c r="K12">
-        <v>0.8088744779879278</v>
+        <v>1.701474457789431</v>
       </c>
       <c r="L12">
-        <v>0.4879476982384716</v>
+        <v>0.4329926395784014</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.34768850386706</v>
+        <v>0.918560337558576</v>
       </c>
       <c r="O12">
-        <v>6.036470581287347</v>
+        <v>3.088258277953969</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.154303503564876</v>
+        <v>1.915815784501376</v>
       </c>
       <c r="C13">
-        <v>0.05264823710979272</v>
+        <v>0.1218672031424148</v>
       </c>
       <c r="D13">
-        <v>0.5231146860324429</v>
+        <v>0.4036652103443146</v>
       </c>
       <c r="E13">
-        <v>0.1594010660138814</v>
+        <v>0.08688890749179734</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002522240742944915</v>
+        <v>0.0008145513092335695</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.38665337542264</v>
+        <v>0.6330513500387198</v>
       </c>
       <c r="J13">
-        <v>0.05400364816278902</v>
+        <v>0.01828613621226527</v>
       </c>
       <c r="K13">
-        <v>0.8064005215563839</v>
+        <v>1.692243733370901</v>
       </c>
       <c r="L13">
-        <v>0.4875775350831333</v>
+        <v>0.4311230637506043</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.348844622649054</v>
+        <v>0.9212956382386928</v>
       </c>
       <c r="O13">
-        <v>6.037135024554033</v>
+        <v>3.08356725315798</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.145737270909564</v>
+        <v>1.882584277187561</v>
       </c>
       <c r="C14">
-        <v>0.05209229930574111</v>
+        <v>0.1200821694052507</v>
       </c>
       <c r="D14">
-        <v>0.5222495800378368</v>
+        <v>0.3986119162376411</v>
       </c>
       <c r="E14">
-        <v>0.1593416157674561</v>
+        <v>0.08615627706376827</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002522711354838789</v>
+        <v>0.0008153302150492352</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.387640642410837</v>
+        <v>0.6316602649683603</v>
       </c>
       <c r="J14">
-        <v>0.05403857630048758</v>
+        <v>0.01832806389185659</v>
       </c>
       <c r="K14">
-        <v>0.798337870896404</v>
+        <v>1.662168395725558</v>
       </c>
       <c r="L14">
-        <v>0.4863751245376733</v>
+        <v>0.4250389195217963</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.352632062094587</v>
+        <v>0.9302555187008554</v>
       </c>
       <c r="O14">
-        <v>6.039365284756713</v>
+        <v>3.068431379285158</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.140497315635912</v>
+        <v>1.862255021994542</v>
       </c>
       <c r="C15">
-        <v>0.05175144154603117</v>
+        <v>0.1189895747158403</v>
       </c>
       <c r="D15">
-        <v>0.5217237203776079</v>
+        <v>0.3955267620902276</v>
       </c>
       <c r="E15">
-        <v>0.1593062477763105</v>
+        <v>0.08570967114031802</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002523001340789062</v>
+        <v>0.0008158086799416365</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.388255875648944</v>
+        <v>0.6308332713327758</v>
       </c>
       <c r="J15">
-        <v>0.05406013243369046</v>
+        <v>0.01835395956636443</v>
       </c>
       <c r="K15">
-        <v>0.7934034703227724</v>
+        <v>1.64376754942046</v>
       </c>
       <c r="L15">
-        <v>0.4856422828399616</v>
+        <v>0.4213220348656392</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.354965106227807</v>
+        <v>0.9357738595422411</v>
       </c>
       <c r="O15">
-        <v>6.040780082830736</v>
+        <v>3.059283978147249</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.110578790238691</v>
+        <v>1.746137198646039</v>
       </c>
       <c r="C16">
-        <v>0.0497930782811693</v>
+        <v>0.112739391355106</v>
       </c>
       <c r="D16">
-        <v>0.5187722937381096</v>
+        <v>0.3779978039589906</v>
       </c>
       <c r="E16">
-        <v>0.1591196394402772</v>
+        <v>0.08318255476352832</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002524689585172242</v>
+        <v>0.0008185718212298053</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.391942586918809</v>
+        <v>0.6264698928801877</v>
       </c>
       <c r="J16">
-        <v>0.05418614269968014</v>
+        <v>0.01850561680887708</v>
       </c>
       <c r="K16">
-        <v>0.7651913320649442</v>
+        <v>1.538628130462001</v>
       </c>
       <c r="L16">
-        <v>0.4814990146384588</v>
+        <v>0.4001678360676664</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.368536050527004</v>
+        <v>0.9678523685926219</v>
       </c>
       <c r="O16">
-        <v>6.049634455650789</v>
+        <v>3.008713454307468</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.092323107538789</v>
+        <v>1.675223901563641</v>
       </c>
       <c r="C17">
-        <v>0.04858719440973402</v>
+        <v>0.1089138195456059</v>
       </c>
       <c r="D17">
-        <v>0.5170171753582764</v>
+        <v>0.3673741337866261</v>
       </c>
       <c r="E17">
-        <v>0.1590195277172626</v>
+        <v>0.08166016442922697</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002525748921082607</v>
+        <v>0.0008202862726482015</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.394348051129306</v>
+        <v>0.6241191830162549</v>
       </c>
       <c r="J17">
-        <v>0.05426566312961789</v>
+        <v>0.01860154445995921</v>
       </c>
       <c r="K17">
-        <v>0.7479425184558011</v>
+        <v>1.474386711299701</v>
       </c>
       <c r="L17">
-        <v>0.4790076546560442</v>
+        <v>0.3873153023000384</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.377040923632437</v>
+        <v>0.9879301165187897</v>
       </c>
       <c r="O17">
-        <v>6.055732990394176</v>
+        <v>2.979290259775127</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.081859315426698</v>
+        <v>1.634547291494272</v>
       </c>
       <c r="C18">
-        <v>0.04789195548178782</v>
+        <v>0.1067162179785441</v>
       </c>
       <c r="D18">
-        <v>0.5160281110273246</v>
+        <v>0.3613095189981408</v>
       </c>
       <c r="E18">
-        <v>0.1589672359224288</v>
+        <v>0.08079446674849322</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002526366935088098</v>
+        <v>0.0008212796435322523</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.395784479685616</v>
+        <v>0.6228833804433975</v>
       </c>
       <c r="J18">
-        <v>0.0543122174138011</v>
+        <v>0.01865777502867871</v>
       </c>
       <c r="K18">
-        <v>0.7380431215090937</v>
+        <v>1.437525089057289</v>
       </c>
       <c r="L18">
-        <v>0.4775932590402618</v>
+        <v>0.3799667556986748</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.381998679220558</v>
+        <v>0.9996219011807845</v>
       </c>
       <c r="O18">
-        <v>6.059485836642551</v>
+        <v>2.962935495632905</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.078322729151608</v>
+        <v>1.620793261793523</v>
       </c>
       <c r="C19">
-        <v>0.04765627714688492</v>
+        <v>0.1059725828001916</v>
       </c>
       <c r="D19">
-        <v>0.515696744299035</v>
+        <v>0.3592638460435751</v>
       </c>
       <c r="E19">
-        <v>0.1589504403187227</v>
+        <v>0.08050303439482676</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002526577682142084</v>
+        <v>0.0008216172433721716</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.396279912728104</v>
+        <v>0.6224845970514465</v>
       </c>
       <c r="J19">
-        <v>0.05432812021888722</v>
+        <v>0.0186769943862739</v>
       </c>
       <c r="K19">
-        <v>0.7346950952233726</v>
+        <v>1.425058945433136</v>
       </c>
       <c r="L19">
-        <v>0.4771175626077735</v>
+        <v>0.377486017217592</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.38368862160992</v>
+        <v>1.003604933188535</v>
       </c>
       <c r="O19">
-        <v>6.060798599991216</v>
+        <v>2.957493932488148</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.094262695047604</v>
+        <v>1.682761111912157</v>
       </c>
       <c r="C20">
-        <v>0.04871573329911882</v>
+        <v>0.1093207622925121</v>
       </c>
       <c r="D20">
-        <v>0.5172018968866752</v>
+        <v>0.3685002563770325</v>
       </c>
       <c r="E20">
-        <v>0.1590296375347968</v>
+        <v>0.08182118960099416</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002525635251769483</v>
+        <v>0.000820103017996488</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.394086514233031</v>
+        <v>0.6243573082341882</v>
       </c>
       <c r="J20">
-        <v>0.05425711359892826</v>
+        <v>0.01859122340371311</v>
       </c>
       <c r="K20">
-        <v>0.7497764463315661</v>
+        <v>1.481216032122177</v>
       </c>
       <c r="L20">
-        <v>0.4792709434346563</v>
+        <v>0.3886788896068225</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.376128736898188</v>
+        <v>0.9857778803099304</v>
       </c>
       <c r="O20">
-        <v>6.055058423897748</v>
+        <v>2.982363124047794</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.148251900823482</v>
+        <v>1.892339714637359</v>
       </c>
       <c r="C21">
-        <v>0.05225566046829044</v>
+        <v>0.120606309827906</v>
       </c>
       <c r="D21">
-        <v>0.5225028403699952</v>
+        <v>0.4000940682269345</v>
       </c>
       <c r="E21">
-        <v>0.1593588596083038</v>
+        <v>0.08637101815856951</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002522572765750508</v>
+        <v>0.0008151011484285646</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.387348469358265</v>
+        <v>0.6320636112660267</v>
       </c>
       <c r="J21">
-        <v>0.05402828338206511</v>
+        <v>0.01831570412782302</v>
       </c>
       <c r="K21">
-        <v>0.8007051914464114</v>
+        <v>1.670997801365615</v>
       </c>
       <c r="L21">
-        <v>0.4867275372043878</v>
+        <v>0.4268239198377586</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.351516863416055</v>
+        <v>0.9276174830903265</v>
       </c>
       <c r="O21">
-        <v>6.038700055119989</v>
+        <v>3.072851246041978</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.183855835735358</v>
+        <v>2.030455580474893</v>
       </c>
       <c r="C22">
-        <v>0.05455445760954092</v>
+        <v>0.1280162343509375</v>
       </c>
       <c r="D22">
-        <v>0.5261483707697607</v>
+        <v>0.4211909854192868</v>
       </c>
       <c r="E22">
-        <v>0.1596209139940896</v>
+        <v>0.08944001895226705</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002520648415698225</v>
+        <v>0.0008118935375514011</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.383414964035097</v>
+        <v>0.6382131787642891</v>
       </c>
       <c r="J22">
-        <v>0.05388596805579571</v>
+        <v>0.01814518502874574</v>
       </c>
       <c r="K22">
-        <v>0.8341788362755267</v>
+        <v>1.795960632148848</v>
       </c>
       <c r="L22">
-        <v>0.49176521489251</v>
+        <v>0.4521883740729891</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.336019158025985</v>
+        <v>0.8909480766327977</v>
       </c>
       <c r="O22">
-        <v>6.030188940045861</v>
+        <v>3.137476702439955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.164824421535457</v>
+        <v>1.956627914345518</v>
       </c>
       <c r="C23">
-        <v>0.05332890023819914</v>
+        <v>0.1240578072246166</v>
       </c>
       <c r="D23">
-        <v>0.5241861593443957</v>
+        <v>0.4098880886909626</v>
       </c>
       <c r="E23">
-        <v>0.1594767707807598</v>
+        <v>0.08779295629429029</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002521668437290188</v>
+        <v>0.0008136000465704254</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.38547135559871</v>
+        <v>0.6348252714282481</v>
       </c>
       <c r="J23">
-        <v>0.05396126355280639</v>
+        <v>0.01823531302815784</v>
       </c>
       <c r="K23">
-        <v>0.8162962510637044</v>
+        <v>1.729173347584577</v>
       </c>
       <c r="L23">
-        <v>0.4890615202215258</v>
+        <v>0.4386089301405889</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.344236808486844</v>
+        <v>0.9103932736097331</v>
       </c>
       <c r="O23">
-        <v>6.034532146501846</v>
+        <v>3.10246156838312</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.09338570891137</v>
+        <v>1.67935325303992</v>
       </c>
       <c r="C24">
-        <v>0.04865762697265552</v>
+        <v>0.1091367780640269</v>
       </c>
       <c r="D24">
-        <v>0.5171183220503366</v>
+        <v>0.3679910026225883</v>
       </c>
       <c r="E24">
-        <v>0.1590250504880331</v>
+        <v>0.08174836046563172</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002525686613715956</v>
+        <v>0.0008201858434299836</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.394204588421367</v>
+        <v>0.6242492924348184</v>
       </c>
       <c r="J24">
-        <v>0.05426097623433002</v>
+        <v>0.01859588618934094</v>
       </c>
       <c r="K24">
-        <v>0.748947273992087</v>
+        <v>1.478128274623714</v>
       </c>
       <c r="L24">
-        <v>0.4791518547474283</v>
+        <v>0.3880622859646081</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.376540924106113</v>
+        <v>0.986750443442034</v>
       </c>
       <c r="O24">
-        <v>6.055362626861637</v>
+        <v>2.98097213921821</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.01772167936096</v>
+        <v>1.384425898915794</v>
       </c>
       <c r="C25">
-        <v>0.04355599086622419</v>
+        <v>0.09314308535223859</v>
       </c>
       <c r="D25">
-        <v>0.5102762128848326</v>
+        <v>0.3245301996767296</v>
       </c>
       <c r="E25">
-        <v>0.1587401609321937</v>
+        <v>0.075604829787288</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002530354204184289</v>
+        <v>0.0008275691011806474</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.405646446858938</v>
+        <v>0.6172471711778087</v>
       </c>
       <c r="J25">
-        <v>0.05461548999927723</v>
+        <v>0.01902510348077691</v>
       </c>
       <c r="K25">
-        <v>0.6771309496192259</v>
+        <v>1.210641019290705</v>
       </c>
       <c r="L25">
-        <v>0.4691731312010177</v>
+        <v>0.335195494912341</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.413908677023045</v>
+        <v>1.074572440630662</v>
       </c>
       <c r="O25">
-        <v>6.087205112400824</v>
+        <v>2.87145532534845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.170033360203178</v>
+        <v>2.392014730357175</v>
       </c>
       <c r="C2">
-        <v>0.08140551456851597</v>
+        <v>0.7695160727403447</v>
       </c>
       <c r="D2">
-        <v>0.2938144398341365</v>
+        <v>0.2030534866424887</v>
       </c>
       <c r="E2">
-        <v>0.0713702258603881</v>
+        <v>1.376865798689593</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008332629776257229</v>
+        <v>0.4421465145445893</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01373337876317926</v>
       </c>
       <c r="I2">
-        <v>0.6154987364715794</v>
+        <v>0.008779935260875504</v>
       </c>
       <c r="J2">
-        <v>0.01937510567316902</v>
+        <v>0.3077062458532112</v>
       </c>
       <c r="K2">
-        <v>1.015794905010324</v>
+        <v>0.2055609705856618</v>
       </c>
       <c r="L2">
-        <v>0.2974719424214385</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.143635621106696</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.807252288781115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.756722391700464</v>
+      </c>
+      <c r="Q2">
+        <v>1.53210081504929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.026089868655049</v>
+        <v>2.083957163553407</v>
       </c>
       <c r="C3">
-        <v>0.0734531637546425</v>
+        <v>0.6781201897955498</v>
       </c>
       <c r="D3">
-        <v>0.2737051873012604</v>
+        <v>0.1762541128098576</v>
       </c>
       <c r="E3">
-        <v>0.06866454236861586</v>
+        <v>1.202277846088833</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008372905087943609</v>
+        <v>0.3988171970145231</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01026886202272478</v>
       </c>
       <c r="I3">
-        <v>0.6162643239670871</v>
+        <v>0.006592219290934231</v>
       </c>
       <c r="J3">
-        <v>0.01963319140630038</v>
+        <v>0.2915115129789569</v>
       </c>
       <c r="K3">
-        <v>0.8847228977884924</v>
+        <v>0.202606045050608</v>
       </c>
       <c r="L3">
-        <v>0.2725548676419294</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.193050416222562</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.773040932141072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7510780461404707</v>
+      </c>
+      <c r="Q3">
+        <v>1.40603101832076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9382633550484343</v>
+        <v>1.894095563931472</v>
       </c>
       <c r="C4">
-        <v>0.06856502683118038</v>
+        <v>0.6222818669797618</v>
       </c>
       <c r="D4">
-        <v>0.261678100125792</v>
+        <v>0.159925791063273</v>
       </c>
       <c r="E4">
-        <v>0.06707930286585118</v>
+        <v>1.09528371163492</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008398491464405174</v>
+        <v>0.3726011609263935</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.008328265329464624</v>
       </c>
       <c r="I4">
-        <v>0.6176427562911719</v>
+        <v>0.005397165649461577</v>
       </c>
       <c r="J4">
-        <v>0.0198018652064782</v>
+        <v>0.2818348444768759</v>
       </c>
       <c r="K4">
-        <v>0.8046250366014362</v>
+        <v>0.2010255600854904</v>
       </c>
       <c r="L4">
-        <v>0.2575447632698342</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.224636929183244</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.75633034720147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7482917004333416</v>
+      </c>
+      <c r="Q4">
+        <v>1.329997025365316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9025979530382244</v>
+        <v>1.815463860777015</v>
       </c>
       <c r="C5">
-        <v>0.06657084867176621</v>
+        <v>0.6003836861783611</v>
       </c>
       <c r="D5">
-        <v>0.2568534978919672</v>
+        <v>0.1532990439734476</v>
       </c>
       <c r="E5">
-        <v>0.06645175373174972</v>
+        <v>1.051699012312966</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008409137107543399</v>
+        <v>0.3615681943065994</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.007578920282144241</v>
       </c>
       <c r="I5">
-        <v>0.6184253385585912</v>
+        <v>0.004995940775758712</v>
       </c>
       <c r="J5">
-        <v>0.01987315443990667</v>
+        <v>0.2777308323581025</v>
       </c>
       <c r="K5">
-        <v>0.7720666827107436</v>
+        <v>0.200156440116718</v>
       </c>
       <c r="L5">
-        <v>0.2514964954170011</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.237815865171514</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.75055990090712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7477311381632816</v>
+      </c>
+      <c r="Q5">
+        <v>1.297932374486294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8966828422977642</v>
+        <v>1.801079440213726</v>
       </c>
       <c r="C6">
-        <v>0.06623955807732784</v>
+        <v>0.5977258825218428</v>
       </c>
       <c r="D6">
-        <v>0.2560568868536421</v>
+        <v>0.1521992200681552</v>
       </c>
       <c r="E6">
-        <v>0.06634864474775526</v>
+        <v>1.044443483513859</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008410918131802491</v>
+        <v>0.3592064198693805</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.007455118061471755</v>
       </c>
       <c r="I6">
-        <v>0.6185684110819061</v>
+        <v>0.005001682532327578</v>
       </c>
       <c r="J6">
-        <v>0.01988514579072431</v>
+        <v>0.2767799366077099</v>
       </c>
       <c r="K6">
-        <v>0.7666649723580292</v>
+        <v>0.1996730655462393</v>
       </c>
       <c r="L6">
-        <v>0.2504962013033492</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.240022598869684</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.749663334399514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7481513775696627</v>
+      </c>
+      <c r="Q6">
+        <v>1.290920619402243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9377818736986683</v>
+        <v>1.889427808310501</v>
       </c>
       <c r="C7">
-        <v>0.0685381427657461</v>
+        <v>0.6246562155821778</v>
       </c>
       <c r="D7">
-        <v>0.2616127290566084</v>
+        <v>0.1598333299112937</v>
       </c>
       <c r="E7">
-        <v>0.06707076569168713</v>
+        <v>1.094641502243945</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008398634143975337</v>
+        <v>0.3709887502208176</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.008312669011897506</v>
       </c>
       <c r="I7">
-        <v>0.6176524259336951</v>
+        <v>0.005569368821523035</v>
       </c>
       <c r="J7">
-        <v>0.0198028163172399</v>
+        <v>0.2810328349513043</v>
       </c>
       <c r="K7">
-        <v>0.8041856279797344</v>
+        <v>0.2000782116584041</v>
       </c>
       <c r="L7">
-        <v>0.2574629223992559</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.224813428948186</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.756248369568681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7496720300039499</v>
+      </c>
+      <c r="Q7">
+        <v>1.324898177136902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.120277035650474</v>
+        <v>2.281112073725865</v>
       </c>
       <c r="C8">
-        <v>0.07866411214395441</v>
+        <v>0.7415072856310303</v>
       </c>
       <c r="D8">
-        <v>0.2868118939634314</v>
+        <v>0.1937798488412312</v>
       </c>
       <c r="E8">
-        <v>0.07042110105163957</v>
+        <v>1.316540395800374</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008346340917517763</v>
+        <v>0.4251732562159134</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01248950455592235</v>
       </c>
       <c r="I8">
-        <v>0.6155695201810758</v>
+        <v>0.008202765949501867</v>
       </c>
       <c r="J8">
-        <v>0.01946196653862309</v>
+        <v>0.3010744422078773</v>
       </c>
       <c r="K8">
-        <v>0.9705137735734013</v>
+        <v>0.2032538420120069</v>
       </c>
       <c r="L8">
-        <v>0.2888179229704946</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.160411589116611</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.794539497980452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7565289919475617</v>
+      </c>
+      <c r="Q8">
+        <v>1.482129130558548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.483291880541458</v>
+        <v>3.050478388012891</v>
       </c>
       <c r="C9">
-        <v>0.09852154248486045</v>
+        <v>0.9684723242145878</v>
       </c>
       <c r="D9">
-        <v>0.3389574278280207</v>
+        <v>0.2615429775618878</v>
       </c>
       <c r="E9">
-        <v>0.07762718062780394</v>
+        <v>1.754302986472155</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008250431336331857</v>
+        <v>0.5376350243062404</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02235805116661416</v>
       </c>
       <c r="I9">
-        <v>0.6190521517812257</v>
+        <v>0.01442420607185912</v>
       </c>
       <c r="J9">
-        <v>0.01887520094312567</v>
+        <v>0.3440524921645931</v>
       </c>
       <c r="K9">
-        <v>1.300370766467779</v>
+        <v>0.2131838442078795</v>
       </c>
       <c r="L9">
-        <v>0.3528028690842007</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.044287082322469</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.905660424357677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7730598625537652</v>
+      </c>
+      <c r="Q9">
+        <v>1.811243510431808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.75424443489996</v>
+        <v>3.598127459824184</v>
       </c>
       <c r="C10">
-        <v>0.1131763217101422</v>
+        <v>1.131365593986033</v>
       </c>
       <c r="D10">
-        <v>0.3792163828499611</v>
+        <v>0.3122548050469049</v>
       </c>
       <c r="E10">
-        <v>0.08335763986253752</v>
+        <v>1.975903765533062</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008183771637828019</v>
+        <v>0.6133552587874078</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03011317513023215</v>
       </c>
       <c r="I10">
-        <v>0.6267541351056636</v>
+        <v>0.01993494842055021</v>
       </c>
       <c r="J10">
-        <v>0.01849481431379996</v>
+        <v>0.3726122371093368</v>
       </c>
       <c r="K10">
-        <v>1.545970962945802</v>
+        <v>0.2185745827118097</v>
       </c>
       <c r="L10">
-        <v>0.4016404904189841</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9655810229923176</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.01214929180378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7955087123838354</v>
+      </c>
+      <c r="Q10">
+        <v>2.032040425767576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.878695173874689</v>
+        <v>3.725465265112291</v>
       </c>
       <c r="C11">
-        <v>0.1198731859049929</v>
+        <v>1.145556449203127</v>
       </c>
       <c r="D11">
-        <v>0.3980213430242117</v>
+        <v>0.3350080141489542</v>
       </c>
       <c r="E11">
-        <v>0.086070745385463</v>
+        <v>1.282918839911744</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008154216310562082</v>
+        <v>0.5687658656173511</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04517696498968959</v>
       </c>
       <c r="I11">
-        <v>0.6315006378485819</v>
+        <v>0.02162482269289789</v>
       </c>
       <c r="J11">
-        <v>0.01833300327260634</v>
+        <v>0.3471402526020171</v>
       </c>
       <c r="K11">
-        <v>1.658648348727155</v>
+        <v>0.1951961720819568</v>
       </c>
       <c r="L11">
-        <v>0.4243275585078408</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9313090116961771</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.066674815442639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8614656949474977</v>
+      </c>
+      <c r="Q11">
+        <v>1.884333779446678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.926016243284721</v>
+        <v>3.722149520658775</v>
       </c>
       <c r="C12">
-        <v>0.1224148809758532</v>
+        <v>1.119084232709184</v>
       </c>
       <c r="D12">
-        <v>0.4052188105339241</v>
+        <v>0.3434405947729005</v>
       </c>
       <c r="E12">
-        <v>0.08711442296618088</v>
+        <v>0.7839078912134312</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008143130104606176</v>
+        <v>0.5188692598898115</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08079426372666632</v>
       </c>
       <c r="I12">
-        <v>0.6334880003021723</v>
+        <v>0.02163356224115187</v>
       </c>
       <c r="J12">
-        <v>0.01827336522680412</v>
+        <v>0.3211385204741077</v>
       </c>
       <c r="K12">
-        <v>1.701474457789431</v>
+        <v>0.1764715840758697</v>
       </c>
       <c r="L12">
-        <v>0.4329926395784014</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.918560337558576</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.088258277953969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9131344512278901</v>
+      </c>
+      <c r="Q12">
+        <v>1.724157162684662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.915815784501376</v>
+        <v>3.61255899360043</v>
       </c>
       <c r="C13">
-        <v>0.1218672031424148</v>
+        <v>1.064378417314202</v>
       </c>
       <c r="D13">
-        <v>0.4036652103443146</v>
+        <v>0.3411957055009367</v>
       </c>
       <c r="E13">
-        <v>0.08688890749179734</v>
+        <v>0.4052803485862952</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008145513092335695</v>
+        <v>0.4598932372412179</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1335303057689003</v>
       </c>
       <c r="I13">
-        <v>0.6330513500387198</v>
+        <v>0.02061583303428804</v>
       </c>
       <c r="J13">
-        <v>0.01828613621226527</v>
+        <v>0.2921003571867544</v>
       </c>
       <c r="K13">
-        <v>1.692243733370901</v>
+        <v>0.1587482455129638</v>
       </c>
       <c r="L13">
-        <v>0.4311230637506043</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9212956382386928</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.08356725315798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9580507815702504</v>
+      </c>
+      <c r="Q13">
+        <v>1.538292789087649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.882584277187561</v>
+        <v>3.487217255428106</v>
       </c>
       <c r="C14">
-        <v>0.1200821694052507</v>
+        <v>1.014565648710374</v>
       </c>
       <c r="D14">
-        <v>0.3986119162376411</v>
+        <v>0.3348032771465483</v>
       </c>
       <c r="E14">
-        <v>0.08615627706376827</v>
+        <v>0.2132183147137354</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008153302150492352</v>
+        <v>0.4147688422857101</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1809029718427126</v>
       </c>
       <c r="I14">
-        <v>0.6316602649683603</v>
+        <v>0.01954474523254301</v>
       </c>
       <c r="J14">
-        <v>0.01832806389185659</v>
+        <v>0.2704650121857952</v>
       </c>
       <c r="K14">
-        <v>1.662168395725558</v>
+        <v>0.1467840832595897</v>
       </c>
       <c r="L14">
-        <v>0.4250389195217963</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9302555187008554</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.068431379285158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9869272845056116</v>
+      </c>
+      <c r="Q14">
+        <v>1.397267789392345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.862255021994542</v>
+        <v>3.432914350183864</v>
       </c>
       <c r="C15">
-        <v>0.1189895747158403</v>
+        <v>0.9974958256231332</v>
       </c>
       <c r="D15">
-        <v>0.3955267620902276</v>
+        <v>0.3309724912613774</v>
       </c>
       <c r="E15">
-        <v>0.08570967114031802</v>
+        <v>0.1754653485277409</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008158086799416365</v>
+        <v>0.4012863585123796</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1927539848208966</v>
       </c>
       <c r="I15">
-        <v>0.6308332713327758</v>
+        <v>0.01915000023135072</v>
       </c>
       <c r="J15">
-        <v>0.01835395956636443</v>
+        <v>0.2643024925068005</v>
       </c>
       <c r="K15">
-        <v>1.64376754942046</v>
+        <v>0.1437447983462299</v>
       </c>
       <c r="L15">
-        <v>0.4213220348656392</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9357738595422411</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.059283978147249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9927372746873999</v>
+      </c>
+      <c r="Q15">
+        <v>1.355747412174992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.746137198646039</v>
+        <v>3.220346511623745</v>
       </c>
       <c r="C16">
-        <v>0.112739391355106</v>
+        <v>0.9417556230287687</v>
       </c>
       <c r="D16">
-        <v>0.3779978039589906</v>
+        <v>0.309365909862791</v>
       </c>
       <c r="E16">
-        <v>0.08318255476352832</v>
+        <v>0.1717437156195949</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008185718212298053</v>
+        <v>0.3811102042030541</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1776051316440004</v>
       </c>
       <c r="I16">
-        <v>0.6264698928801877</v>
+        <v>0.01710465108699477</v>
       </c>
       <c r="J16">
-        <v>0.01850561680887708</v>
+        <v>0.2579017530503904</v>
       </c>
       <c r="K16">
-        <v>1.538628130462001</v>
+        <v>0.1445770741683212</v>
       </c>
       <c r="L16">
-        <v>0.4001678360676664</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9678523685926219</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.008713454307468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.9717529425358293</v>
+      </c>
+      <c r="Q16">
+        <v>1.299377721156674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.675223901563641</v>
+        <v>3.123532109676091</v>
       </c>
       <c r="C17">
-        <v>0.1089138195456059</v>
+        <v>0.9253312952880322</v>
       </c>
       <c r="D17">
-        <v>0.3673741337866261</v>
+        <v>0.2962676059571265</v>
       </c>
       <c r="E17">
-        <v>0.08166016442922697</v>
+        <v>0.2571696114527029</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008202862726482015</v>
+        <v>0.3892479336896741</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1389414739150538</v>
       </c>
       <c r="I17">
-        <v>0.6241191830162549</v>
+        <v>0.0161211935366623</v>
       </c>
       <c r="J17">
-        <v>0.01860154445995921</v>
+        <v>0.2643794347409312</v>
       </c>
       <c r="K17">
-        <v>1.474386711299701</v>
+        <v>0.1514778877314171</v>
       </c>
       <c r="L17">
-        <v>0.3873153023000384</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9879301165187897</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.979290259775127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9407671331003797</v>
+      </c>
+      <c r="Q17">
+        <v>1.33007517969105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.634547291494272</v>
+        <v>3.118007653896598</v>
       </c>
       <c r="C18">
-        <v>0.1067162179785441</v>
+        <v>0.938958971134042</v>
       </c>
       <c r="D18">
-        <v>0.3613095189981408</v>
+        <v>0.2889050515934173</v>
       </c>
       <c r="E18">
-        <v>0.08079446674849322</v>
+        <v>0.4925984038535987</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008212796435322523</v>
+        <v>0.424540292580204</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08691532680589376</v>
       </c>
       <c r="I18">
-        <v>0.6228833804433975</v>
+        <v>0.01570937790912286</v>
       </c>
       <c r="J18">
-        <v>0.01865777502867871</v>
+        <v>0.2834540654624931</v>
       </c>
       <c r="K18">
-        <v>1.437525089057289</v>
+        <v>0.1653619779067554</v>
       </c>
       <c r="L18">
-        <v>0.3799667556986748</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9996219011807845</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.962935495632905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.8971958353394314</v>
+      </c>
+      <c r="Q18">
+        <v>1.44477652350713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.620793261793523</v>
+        <v>3.179765622250898</v>
       </c>
       <c r="C19">
-        <v>0.1059725828001916</v>
+        <v>0.9816864882770062</v>
       </c>
       <c r="D19">
-        <v>0.3592638460435751</v>
+        <v>0.2866551590948916</v>
       </c>
       <c r="E19">
-        <v>0.08050303439482676</v>
+        <v>0.9298769816213195</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008216172433721716</v>
+        <v>0.4785458592996292</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04459668183950782</v>
       </c>
       <c r="I19">
-        <v>0.6224845970514465</v>
+        <v>0.01629562515511385</v>
       </c>
       <c r="J19">
-        <v>0.0186769943862739</v>
+        <v>0.310709269274497</v>
       </c>
       <c r="K19">
-        <v>1.425058945433136</v>
+        <v>0.1831881607238692</v>
       </c>
       <c r="L19">
-        <v>0.377486017217592</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.003604933188535</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.957493932488148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8517379409624795</v>
+      </c>
+      <c r="Q19">
+        <v>1.616339800229269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.682761111912157</v>
+        <v>3.442348034085228</v>
       </c>
       <c r="C20">
-        <v>0.1093207622925121</v>
+        <v>1.096721339413904</v>
       </c>
       <c r="D20">
-        <v>0.3685002563770325</v>
+        <v>0.2988435444184461</v>
       </c>
       <c r="E20">
-        <v>0.08182118960099416</v>
+        <v>1.913112464568826</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000820103017996488</v>
+        <v>0.5882790382104304</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02791160077472377</v>
       </c>
       <c r="I20">
-        <v>0.6243573082341882</v>
+        <v>0.018988925223411</v>
       </c>
       <c r="J20">
-        <v>0.01859122340371311</v>
+        <v>0.3624753458274625</v>
       </c>
       <c r="K20">
-        <v>1.481216032122177</v>
+        <v>0.2140432914225165</v>
       </c>
       <c r="L20">
-        <v>0.3886788896068225</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9857778803099304</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.982363124047794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7943578226994816</v>
+      </c>
+      <c r="Q20">
+        <v>1.957533742363239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.892339714637359</v>
+        <v>3.884662954163048</v>
       </c>
       <c r="C21">
-        <v>0.120606309827906</v>
+        <v>1.232422935681313</v>
       </c>
       <c r="D21">
-        <v>0.4000940682269345</v>
+        <v>0.3382553275155544</v>
       </c>
       <c r="E21">
-        <v>0.08637101815856951</v>
+        <v>2.24345042923315</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008151011484285646</v>
+        <v>0.662486919233956</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03556410800083754</v>
       </c>
       <c r="I21">
-        <v>0.6320636112660267</v>
+        <v>0.02372260491584299</v>
       </c>
       <c r="J21">
-        <v>0.01831570412782302</v>
+        <v>0.3923234608803909</v>
       </c>
       <c r="K21">
-        <v>1.670997801365615</v>
+        <v>0.2238791590777716</v>
       </c>
       <c r="L21">
-        <v>0.4268239198377586</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9276174830903265</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.072851246041978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8032349699670362</v>
+      </c>
+      <c r="Q21">
+        <v>2.177710433636719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.030455580474893</v>
+        <v>4.171695765739287</v>
       </c>
       <c r="C22">
-        <v>0.1280162343509375</v>
+        <v>1.314336326314503</v>
       </c>
       <c r="D22">
-        <v>0.4211909854192868</v>
+        <v>0.3642584908158568</v>
       </c>
       <c r="E22">
-        <v>0.08944001895226705</v>
+        <v>2.40809201822708</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008118935375514011</v>
+        <v>0.7090952810387705</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.04049960502151251</v>
       </c>
       <c r="I22">
-        <v>0.6382131787642891</v>
+        <v>0.02675568793745775</v>
       </c>
       <c r="J22">
-        <v>0.01814518502874574</v>
+        <v>0.4110047446035452</v>
       </c>
       <c r="K22">
-        <v>1.795960632148848</v>
+        <v>0.2303850359817616</v>
       </c>
       <c r="L22">
-        <v>0.4521883740729891</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8909480766327977</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>3.137476702439955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8107320027978631</v>
+      </c>
+      <c r="Q22">
+        <v>2.315858706720718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.956627914345518</v>
+        <v>4.022949309870455</v>
       </c>
       <c r="C23">
-        <v>0.1240578072246166</v>
+        <v>1.26728099901527</v>
       </c>
       <c r="D23">
-        <v>0.4098880886909626</v>
+        <v>0.3503598442301978</v>
       </c>
       <c r="E23">
-        <v>0.08779295629429029</v>
+        <v>2.32019591427472</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008136000465704254</v>
+        <v>0.6859001278077841</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03784474416695938</v>
       </c>
       <c r="I23">
-        <v>0.6348252714282481</v>
+        <v>0.02488898354449898</v>
       </c>
       <c r="J23">
-        <v>0.01823531302815784</v>
+        <v>0.4018785416205901</v>
       </c>
       <c r="K23">
-        <v>1.729173347584577</v>
+        <v>0.227974233385595</v>
       </c>
       <c r="L23">
-        <v>0.4386089301405889</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9103932736097331</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>3.10246156838312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8048079870668374</v>
+      </c>
+      <c r="Q23">
+        <v>2.247457310572827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.67935325303992</v>
+        <v>3.452260598958048</v>
       </c>
       <c r="C24">
-        <v>0.1091367780640269</v>
+        <v>1.095433035742047</v>
       </c>
       <c r="D24">
-        <v>0.3679910026225883</v>
+        <v>0.2982631326252374</v>
       </c>
       <c r="E24">
-        <v>0.08174836046563172</v>
+        <v>1.989167216244496</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008201858434299836</v>
+        <v>0.5969030657915084</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02842784182793157</v>
       </c>
       <c r="I24">
-        <v>0.6242492924348184</v>
+        <v>0.01866610282941661</v>
       </c>
       <c r="J24">
-        <v>0.01859588618934094</v>
+        <v>0.3668138064926723</v>
       </c>
       <c r="K24">
-        <v>1.478128274623714</v>
+        <v>0.2178743027653134</v>
       </c>
       <c r="L24">
-        <v>0.3880622859646081</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.986750443442034</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.98097213921821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7869484894853969</v>
+      </c>
+      <c r="Q24">
+        <v>1.984899621253049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.384425898915794</v>
+        <v>2.836165306552346</v>
       </c>
       <c r="C25">
-        <v>0.09314308535223859</v>
+        <v>0.9116619412479281</v>
       </c>
       <c r="D25">
-        <v>0.3245301996767296</v>
+        <v>0.2430494236324563</v>
       </c>
       <c r="E25">
-        <v>0.075604829787288</v>
+        <v>1.635367820980605</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008275691011806474</v>
+        <v>0.5040834749777616</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01946986208322499</v>
       </c>
       <c r="I25">
-        <v>0.6172471711778087</v>
+        <v>0.01288965784653495</v>
       </c>
       <c r="J25">
-        <v>0.01902510348077691</v>
+        <v>0.3307887413683517</v>
       </c>
       <c r="K25">
-        <v>1.210641019290705</v>
+        <v>0.2085692267340242</v>
       </c>
       <c r="L25">
-        <v>0.335195494912341</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.074572440630662</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.87145532534845</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7706350090996352</v>
+      </c>
+      <c r="Q25">
+        <v>1.71215877462609</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.392014730357175</v>
+        <v>2.325919384156009</v>
       </c>
       <c r="C2">
-        <v>0.7695160727403447</v>
+        <v>0.8101824261844115</v>
       </c>
       <c r="D2">
-        <v>0.2030534866424887</v>
+        <v>0.2027715378591637</v>
       </c>
       <c r="E2">
-        <v>1.376865798689593</v>
+        <v>1.372497586037355</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4421465145445893</v>
+        <v>0.4025836346005747</v>
       </c>
       <c r="H2">
-        <v>0.01373337876317926</v>
+        <v>0.01323756601129567</v>
       </c>
       <c r="I2">
-        <v>0.008779935260875504</v>
+        <v>0.008180898771231071</v>
       </c>
       <c r="J2">
-        <v>0.3077062458532112</v>
+        <v>0.3444014480202355</v>
       </c>
       <c r="K2">
-        <v>0.2055609705856618</v>
+        <v>0.1916146700720809</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.127332959859892</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03586203011544065</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.756722391700464</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.53210081504929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7860380027604066</v>
+      </c>
+      <c r="S2">
+        <v>1.462780905848035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.083957163553407</v>
+        <v>2.032982583107298</v>
       </c>
       <c r="C3">
-        <v>0.6781201897955498</v>
+        <v>0.7080132999311104</v>
       </c>
       <c r="D3">
-        <v>0.1762541128098576</v>
+        <v>0.1760633858882699</v>
       </c>
       <c r="E3">
-        <v>1.202277846088833</v>
+        <v>1.199038552368222</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3988171970145231</v>
+        <v>0.3636950965050403</v>
       </c>
       <c r="H3">
-        <v>0.01026886202272478</v>
+        <v>0.009931132170289245</v>
       </c>
       <c r="I3">
-        <v>0.006592219290934231</v>
+        <v>0.006301946980341366</v>
       </c>
       <c r="J3">
-        <v>0.2915115129789569</v>
+        <v>0.3290535455741121</v>
       </c>
       <c r="K3">
-        <v>0.202606045050608</v>
+        <v>0.1909548682778137</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1317003011398832</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03184934154746344</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7510780461404707</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.40603101832076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7727096887344942</v>
+      </c>
+      <c r="S3">
+        <v>1.352150650573122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.894095563931472</v>
+        <v>1.852102354530075</v>
       </c>
       <c r="C4">
-        <v>0.6222818669797618</v>
+        <v>0.6457433341212209</v>
       </c>
       <c r="D4">
-        <v>0.159925791063273</v>
+        <v>0.1597831716027116</v>
       </c>
       <c r="E4">
-        <v>1.09528371163492</v>
+        <v>1.092696596671118</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3726011609263935</v>
+        <v>0.3401659610670862</v>
       </c>
       <c r="H4">
-        <v>0.008328265329464624</v>
+        <v>0.008075475462578807</v>
       </c>
       <c r="I4">
-        <v>0.005397165649461577</v>
+        <v>0.00527165452110534</v>
       </c>
       <c r="J4">
-        <v>0.2818348444768759</v>
+        <v>0.3196897368395781</v>
       </c>
       <c r="K4">
-        <v>0.2010255600854904</v>
+        <v>0.1906977591178673</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1344732845831196</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02991390932815641</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7482917004333416</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.329997025365316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7652977616457051</v>
+      </c>
+      <c r="S4">
+        <v>1.285127971082517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.815463860777015</v>
+        <v>1.77707052395894</v>
       </c>
       <c r="C5">
-        <v>0.6003836861783611</v>
+        <v>0.6212947539883373</v>
       </c>
       <c r="D5">
-        <v>0.1532990439734476</v>
+        <v>0.1531743447442295</v>
       </c>
       <c r="E5">
-        <v>1.051699012312966</v>
+        <v>1.049369612076319</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3615681943065994</v>
+        <v>0.3302314745361201</v>
       </c>
       <c r="H5">
-        <v>0.007578920282144241</v>
+        <v>0.007358070104370784</v>
       </c>
       <c r="I5">
-        <v>0.004995940775758712</v>
+        <v>0.00494501499237554</v>
       </c>
       <c r="J5">
-        <v>0.2777308323581025</v>
+        <v>0.3156607014451396</v>
       </c>
       <c r="K5">
-        <v>0.200156440116718</v>
+        <v>0.1903627645993105</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.135486398267016</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02919374581091638</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7477311381632816</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.297932374486294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7628988164179518</v>
+      </c>
+      <c r="S5">
+        <v>1.256654071497564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.801079440213726</v>
+        <v>1.763295162300608</v>
       </c>
       <c r="C6">
-        <v>0.5977258825218428</v>
+        <v>0.6182468552229352</v>
       </c>
       <c r="D6">
-        <v>0.1521992200681552</v>
+        <v>0.1520774461072847</v>
       </c>
       <c r="E6">
-        <v>1.044443483513859</v>
+        <v>1.042157383943731</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3592064198693805</v>
+        <v>0.3280685120301285</v>
       </c>
       <c r="H6">
-        <v>0.007455118061471755</v>
+        <v>0.007239518490471497</v>
       </c>
       <c r="I6">
-        <v>0.005001682532327578</v>
+        <v>0.004980359580052607</v>
       </c>
       <c r="J6">
-        <v>0.2767799366077099</v>
+        <v>0.3147158434095871</v>
       </c>
       <c r="K6">
-        <v>0.1996730655462393</v>
+        <v>0.1899860557190998</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1354859319702086</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02900526101401901</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7481513775696627</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.290920619402243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.763043597204188</v>
+      </c>
+      <c r="S6">
+        <v>1.25027014150541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.889427808310501</v>
+        <v>1.846221446525192</v>
       </c>
       <c r="C7">
-        <v>0.6246562155821778</v>
+        <v>0.6472407654302117</v>
       </c>
       <c r="D7">
-        <v>0.1598333299112937</v>
+        <v>0.1596885455819006</v>
       </c>
       <c r="E7">
-        <v>1.094641502243945</v>
+        <v>1.092014682191092</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3709887502208176</v>
+        <v>0.341945489070369</v>
       </c>
       <c r="H7">
-        <v>0.008312669011897506</v>
+        <v>0.008056148694168541</v>
       </c>
       <c r="I7">
-        <v>0.005569368821523035</v>
+        <v>0.005484212349183615</v>
       </c>
       <c r="J7">
-        <v>0.2810328349513043</v>
+        <v>0.3138257587426665</v>
       </c>
       <c r="K7">
-        <v>0.2000782116584041</v>
+        <v>0.1895018114574825</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.133875822283251</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02960337198694241</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7496720300039499</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.324898177136902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7672870348694403</v>
+      </c>
+      <c r="S7">
+        <v>1.277077825882373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.281112073725865</v>
+        <v>2.215983516400513</v>
       </c>
       <c r="C8">
-        <v>0.7415072856310303</v>
+        <v>0.7754200372932303</v>
       </c>
       <c r="D8">
-        <v>0.1937798488412312</v>
+        <v>0.1935216782178202</v>
       </c>
       <c r="E8">
-        <v>1.316540395800374</v>
+        <v>1.312420984595903</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4251732562159134</v>
+        <v>0.3983920329918078</v>
       </c>
       <c r="H8">
-        <v>0.01248950455592235</v>
+        <v>0.01203444230289152</v>
       </c>
       <c r="I8">
-        <v>0.008202765949501867</v>
+        <v>0.007750078309595843</v>
       </c>
       <c r="J8">
-        <v>0.3010744422078773</v>
+        <v>0.3214951302331315</v>
       </c>
       <c r="K8">
-        <v>0.2032538420120069</v>
+        <v>0.1891818924427504</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1278085264104689</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0337150983383161</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7565289919475617</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.482129130558548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7852116603881711</v>
+      </c>
+      <c r="S8">
+        <v>1.40805872130656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.050478388012891</v>
+        <v>2.944431277178069</v>
       </c>
       <c r="C9">
-        <v>0.9684723242145878</v>
+        <v>1.029260130894528</v>
       </c>
       <c r="D9">
-        <v>0.2615429775618878</v>
+        <v>0.2609947477012469</v>
       </c>
       <c r="E9">
-        <v>1.754302986472155</v>
+        <v>1.747018126492137</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5376350243062404</v>
+        <v>0.502705129007154</v>
       </c>
       <c r="H9">
-        <v>0.02235805116661416</v>
+        <v>0.0214179575574649</v>
       </c>
       <c r="I9">
-        <v>0.01442420607185912</v>
+        <v>0.01297077348650344</v>
       </c>
       <c r="J9">
-        <v>0.3440524921645931</v>
+        <v>0.3564084961627998</v>
       </c>
       <c r="K9">
-        <v>0.2131838442078795</v>
+        <v>0.1925392522259237</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1179332899567171</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04682201046262691</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7730598625537652</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.811243510431808</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8219761066808076</v>
+      </c>
+      <c r="S9">
+        <v>1.692734254676765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.598127459824184</v>
+        <v>3.453816756494348</v>
       </c>
       <c r="C10">
-        <v>1.131365593986033</v>
+        <v>1.20601312039696</v>
       </c>
       <c r="D10">
-        <v>0.3122548050469049</v>
+        <v>0.3114084704915996</v>
       </c>
       <c r="E10">
-        <v>1.975903765533062</v>
+        <v>1.96597570551998</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6133552587874078</v>
+        <v>0.5931647834599545</v>
       </c>
       <c r="H10">
-        <v>0.03011317513023215</v>
+        <v>0.02872095418778597</v>
       </c>
       <c r="I10">
-        <v>0.01993494842055021</v>
+        <v>0.01756518045781341</v>
       </c>
       <c r="J10">
-        <v>0.3726122371093368</v>
+        <v>0.3502683667571915</v>
       </c>
       <c r="K10">
-        <v>0.2185745827118097</v>
+        <v>0.1914672316549257</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1095400410678771</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05728442074869022</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7955087123838354</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.032040425767576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.863369182864858</v>
+      </c>
+      <c r="S10">
+        <v>1.862621900909971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.725465265112291</v>
+        <v>3.562786192604563</v>
       </c>
       <c r="C11">
-        <v>1.145556449203127</v>
+        <v>1.207117278491012</v>
       </c>
       <c r="D11">
-        <v>0.3350080141489542</v>
+        <v>0.3340109131203519</v>
       </c>
       <c r="E11">
-        <v>1.282918839911744</v>
+        <v>1.273972811918924</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5687658656173511</v>
+        <v>0.5941340431620574</v>
       </c>
       <c r="H11">
-        <v>0.04517696498968959</v>
+        <v>0.04375856652126231</v>
       </c>
       <c r="I11">
-        <v>0.02162482269289789</v>
+        <v>0.01903447539989855</v>
       </c>
       <c r="J11">
-        <v>0.3471402526020171</v>
+        <v>0.2744377962583968</v>
       </c>
       <c r="K11">
-        <v>0.1951961720819568</v>
+        <v>0.1675114448589348</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09790122637694232</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05208190147889269</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8614656949474977</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.884333779446678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9445630406104755</v>
+      </c>
+      <c r="S11">
+        <v>1.686636353106735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.722149520658775</v>
+        <v>3.557032110152875</v>
       </c>
       <c r="C12">
-        <v>1.119084232709184</v>
+        <v>1.170209982278834</v>
       </c>
       <c r="D12">
-        <v>0.3434405947729005</v>
+        <v>0.3423975025772847</v>
       </c>
       <c r="E12">
-        <v>0.7839078912134312</v>
+        <v>0.7763504845034959</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5188692598898115</v>
+        <v>0.5652173047418216</v>
       </c>
       <c r="H12">
-        <v>0.08079426372666632</v>
+        <v>0.07944319732168736</v>
       </c>
       <c r="I12">
-        <v>0.02163356224115187</v>
+        <v>0.01899665128547579</v>
       </c>
       <c r="J12">
-        <v>0.3211385204741077</v>
+        <v>0.2338325579026659</v>
       </c>
       <c r="K12">
-        <v>0.1764715840758697</v>
+        <v>0.1507398673301417</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09120666298317204</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04647231494402604</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9131344512278901</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.724157162684662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.002635710301803</v>
+      </c>
+      <c r="S12">
+        <v>1.525782694239297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.61255899360043</v>
+        <v>3.460720340374735</v>
       </c>
       <c r="C13">
-        <v>1.064378417314202</v>
+        <v>1.10897570762171</v>
       </c>
       <c r="D13">
-        <v>0.3411957055009367</v>
+        <v>0.3401995259041399</v>
       </c>
       <c r="E13">
-        <v>0.4052803485862952</v>
+        <v>0.3993362117046217</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4598932372412179</v>
+        <v>0.5020486079701385</v>
       </c>
       <c r="H13">
-        <v>0.1335303057689003</v>
+        <v>0.1323224020106579</v>
       </c>
       <c r="I13">
-        <v>0.02061583303428804</v>
+        <v>0.01816378288236553</v>
       </c>
       <c r="J13">
-        <v>0.2921003571867544</v>
+        <v>0.2190090159710181</v>
       </c>
       <c r="K13">
-        <v>0.1587482455129638</v>
+        <v>0.1374231704074376</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08705349687727093</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0401115102667724</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9580507815702504</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.538292789087649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.044934880811951</v>
+      </c>
+      <c r="S13">
+        <v>1.365452666316969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.487217255428106</v>
+        <v>3.351407435538988</v>
       </c>
       <c r="C14">
-        <v>1.014565648710374</v>
+        <v>1.056178318353489</v>
       </c>
       <c r="D14">
-        <v>0.3348032771465483</v>
+        <v>0.3338791940487624</v>
       </c>
       <c r="E14">
-        <v>0.2132183147137354</v>
+        <v>0.2083778996400767</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4147688422857101</v>
+        <v>0.4444002820838193</v>
       </c>
       <c r="H14">
-        <v>0.1809029718427126</v>
+        <v>0.1798181335148428</v>
       </c>
       <c r="I14">
-        <v>0.01954474523254301</v>
+        <v>0.01733102640584772</v>
       </c>
       <c r="J14">
-        <v>0.2704650121857952</v>
+        <v>0.2179146106300749</v>
       </c>
       <c r="K14">
-        <v>0.1467840832595897</v>
+        <v>0.1293943404656908</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08505577395484032</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03537057513038455</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9869272845056116</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.397267789392345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.067665959501937</v>
+      </c>
+      <c r="S14">
+        <v>1.252188343375479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.432914350183864</v>
+        <v>3.303994927387805</v>
       </c>
       <c r="C15">
-        <v>0.9974958256231332</v>
+        <v>1.038975436734745</v>
       </c>
       <c r="D15">
-        <v>0.3309724912613774</v>
+        <v>0.3300843306175949</v>
       </c>
       <c r="E15">
-        <v>0.1754653485277409</v>
+        <v>0.1709346473251081</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4012863585123796</v>
+        <v>0.423997116552016</v>
       </c>
       <c r="H15">
-        <v>0.1927539848208966</v>
+        <v>0.1917174326375459</v>
       </c>
       <c r="I15">
-        <v>0.01915000023135072</v>
+        <v>0.01706478309925608</v>
       </c>
       <c r="J15">
-        <v>0.2643024925068005</v>
+        <v>0.2214312326277081</v>
       </c>
       <c r="K15">
-        <v>0.1437447983462299</v>
+        <v>0.1277274612477939</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08487990932212064</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03394953173750537</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9927372746873999</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.355747412174992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.070175767897368</v>
+      </c>
+      <c r="S15">
+        <v>1.221816791144448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.220346511623745</v>
+        <v>3.117040003879481</v>
       </c>
       <c r="C16">
-        <v>0.9417556230287687</v>
+        <v>0.9871313787911618</v>
       </c>
       <c r="D16">
-        <v>0.309365909862791</v>
+        <v>0.3086428553404943</v>
       </c>
       <c r="E16">
-        <v>0.1717437156195949</v>
+        <v>0.1678019944271938</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3811102042030541</v>
+        <v>0.3720636874240597</v>
       </c>
       <c r="H16">
-        <v>0.1776051316440004</v>
+        <v>0.1767579053406934</v>
       </c>
       <c r="I16">
-        <v>0.01710465108699477</v>
+        <v>0.01548560275590294</v>
       </c>
       <c r="J16">
-        <v>0.2579017530503904</v>
+        <v>0.2567125939405486</v>
       </c>
       <c r="K16">
-        <v>0.1445770741683212</v>
+        <v>0.1320650894222588</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08855224847394183</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03198979000693392</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9717529425358293</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.299377721156674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.033822295186582</v>
+      </c>
+      <c r="S16">
+        <v>1.203308591998024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.123532109676091</v>
+        <v>3.029297419990712</v>
       </c>
       <c r="C17">
-        <v>0.9253312952880322</v>
+        <v>0.973935710830375</v>
       </c>
       <c r="D17">
-        <v>0.2962676059571265</v>
+        <v>0.2956238389066641</v>
       </c>
       <c r="E17">
-        <v>0.2571696114527029</v>
+        <v>0.2531856876394798</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3892479336896741</v>
+        <v>0.3660472763248492</v>
       </c>
       <c r="H17">
-        <v>0.1389414739150538</v>
+        <v>0.138170468214696</v>
       </c>
       <c r="I17">
-        <v>0.0161211935366623</v>
+        <v>0.01472296293962572</v>
       </c>
       <c r="J17">
-        <v>0.2643794347409312</v>
+        <v>0.2815141394467844</v>
       </c>
       <c r="K17">
-        <v>0.1514778877314171</v>
+        <v>0.1394779579744139</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09263102959001479</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03275820990476674</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9407671331003797</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.33007517969105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9960992829379478</v>
+      </c>
+      <c r="S17">
+        <v>1.245865828012285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.118007653896598</v>
+        <v>3.022853979061551</v>
       </c>
       <c r="C18">
-        <v>0.938958971134042</v>
+        <v>0.9926530728274372</v>
       </c>
       <c r="D18">
-        <v>0.2889050515934173</v>
+        <v>0.2882900399588095</v>
       </c>
       <c r="E18">
-        <v>0.4925984038535987</v>
+        <v>0.4879996784033978</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.424540292580204</v>
+        <v>0.3928380475746707</v>
       </c>
       <c r="H18">
-        <v>0.08691532680589376</v>
+        <v>0.08613545801141953</v>
       </c>
       <c r="I18">
-        <v>0.01570937790912286</v>
+        <v>0.01431655572736279</v>
       </c>
       <c r="J18">
-        <v>0.2834540654624931</v>
+        <v>0.3075441975652069</v>
       </c>
       <c r="K18">
-        <v>0.1653619779067554</v>
+        <v>0.1517851433388699</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09808596408851322</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03636035090980805</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8971958353394314</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.44477652350713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9502883116749672</v>
+      </c>
+      <c r="S18">
+        <v>1.357333308486318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.179765622250898</v>
+        <v>3.077005384722895</v>
       </c>
       <c r="C19">
-        <v>0.9816864882770062</v>
+        <v>1.042772251227802</v>
       </c>
       <c r="D19">
-        <v>0.2866551590948916</v>
+        <v>0.2860300850032615</v>
       </c>
       <c r="E19">
-        <v>0.9298769816213195</v>
+        <v>0.9240797350803263</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4785458592996292</v>
+        <v>0.4407563075595675</v>
       </c>
       <c r="H19">
-        <v>0.04459668183950782</v>
+        <v>0.04372246134376212</v>
       </c>
       <c r="I19">
-        <v>0.01629562515511385</v>
+        <v>0.01484730652619604</v>
       </c>
       <c r="J19">
-        <v>0.310709269274497</v>
+        <v>0.3351269826646899</v>
       </c>
       <c r="K19">
-        <v>0.1831881607238692</v>
+        <v>0.1666317970291047</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1040185315144928</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0418079916186116</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8517379409624795</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.616339800229269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9054480484367957</v>
+      </c>
+      <c r="S19">
+        <v>1.515667970347579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.442348034085228</v>
+        <v>3.313390238024397</v>
       </c>
       <c r="C20">
-        <v>1.096721339413904</v>
+        <v>1.171502072425312</v>
       </c>
       <c r="D20">
-        <v>0.2988435444184461</v>
+        <v>0.298096781766219</v>
       </c>
       <c r="E20">
-        <v>1.913112464568826</v>
+        <v>1.904094562551109</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5882790382104304</v>
+        <v>0.551939339774151</v>
       </c>
       <c r="H20">
-        <v>0.02791160077472377</v>
+        <v>0.02667147967545924</v>
       </c>
       <c r="I20">
-        <v>0.018988925223411</v>
+        <v>0.0170770738288244</v>
       </c>
       <c r="J20">
-        <v>0.3624753458274625</v>
+        <v>0.3666679129334511</v>
       </c>
       <c r="K20">
-        <v>0.2140432914225165</v>
+        <v>0.1900493663015652</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1110841079420624</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0537375774200477</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7943578226994816</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.957533742363239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8553442886049964</v>
+      </c>
+      <c r="S20">
+        <v>1.813654352943303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.884662954163048</v>
+        <v>3.697461484005998</v>
       </c>
       <c r="C21">
-        <v>1.232422935681313</v>
+        <v>1.301106623575549</v>
       </c>
       <c r="D21">
-        <v>0.3382553275155544</v>
+        <v>0.3371639714952011</v>
       </c>
       <c r="E21">
-        <v>2.24345042923315</v>
+        <v>2.230886721278225</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.662486919233956</v>
+        <v>0.7050534522146279</v>
       </c>
       <c r="H21">
-        <v>0.03556410800083754</v>
+        <v>0.03376297533651984</v>
       </c>
       <c r="I21">
-        <v>0.02372260491584299</v>
+        <v>0.02078171147519381</v>
       </c>
       <c r="J21">
-        <v>0.3923234608803909</v>
+        <v>0.2853019445186504</v>
       </c>
       <c r="K21">
-        <v>0.2238791590777716</v>
+        <v>0.1881999870421076</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1045429381562357</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06190609508063005</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8032349699670362</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.177710433636719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8913002064866049</v>
+      </c>
+      <c r="S21">
+        <v>1.929839111025899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.171695765739287</v>
+        <v>3.943994546827355</v>
       </c>
       <c r="C22">
-        <v>1.314336326314503</v>
+        <v>1.376684047235074</v>
       </c>
       <c r="D22">
-        <v>0.3642584908158568</v>
+        <v>0.3629137649733423</v>
       </c>
       <c r="E22">
-        <v>2.40809201822708</v>
+        <v>2.39320345414562</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7090952810387705</v>
+        <v>0.8136562587482388</v>
       </c>
       <c r="H22">
-        <v>0.04049960502151251</v>
+        <v>0.03830818195074492</v>
       </c>
       <c r="I22">
-        <v>0.02675568793745775</v>
+        <v>0.02301391744062276</v>
       </c>
       <c r="J22">
-        <v>0.4110047446035452</v>
+        <v>0.2345037075240342</v>
       </c>
       <c r="K22">
-        <v>0.2303850359817616</v>
+        <v>0.1866068305412725</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1002846974614542</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06736213729278262</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8107320027978631</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.315858706720718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9178269189420405</v>
+      </c>
+      <c r="S22">
+        <v>1.994847482654137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.022949309870455</v>
+        <v>3.820468681536283</v>
       </c>
       <c r="C23">
-        <v>1.26728099901527</v>
+        <v>1.335524502257385</v>
       </c>
       <c r="D23">
-        <v>0.3503598442301978</v>
+        <v>0.3491628082294795</v>
       </c>
       <c r="E23">
-        <v>2.32019591427472</v>
+        <v>2.306667683907918</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6859001278077841</v>
+        <v>0.7469081733020602</v>
       </c>
       <c r="H23">
-        <v>0.03784474416695938</v>
+        <v>0.03588046340117179</v>
       </c>
       <c r="I23">
-        <v>0.02488898354449898</v>
+        <v>0.02153656754591271</v>
       </c>
       <c r="J23">
-        <v>0.4018785416205901</v>
+        <v>0.2713243450784404</v>
       </c>
       <c r="K23">
-        <v>0.227974233385595</v>
+        <v>0.1891707882782576</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.103107983815228</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06516978388330941</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8048079870668374</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.247457310572827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8997271882625029</v>
+      </c>
+      <c r="S23">
+        <v>1.973548530099691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.452260598958048</v>
+        <v>3.322685368982548</v>
       </c>
       <c r="C24">
-        <v>1.095433035742047</v>
+        <v>1.170837781100715</v>
       </c>
       <c r="D24">
-        <v>0.2982631326252374</v>
+        <v>0.2975164026131267</v>
       </c>
       <c r="E24">
-        <v>1.989167216244496</v>
+        <v>1.979957154631066</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5969030657915084</v>
+        <v>0.559357917535948</v>
       </c>
       <c r="H24">
-        <v>0.02842784182793157</v>
+        <v>0.02717006232742714</v>
       </c>
       <c r="I24">
-        <v>0.01866610282941661</v>
+        <v>0.01664145484170287</v>
       </c>
       <c r="J24">
-        <v>0.3668138064926723</v>
+        <v>0.3716125121027289</v>
       </c>
       <c r="K24">
-        <v>0.2178743027653134</v>
+        <v>0.1934072667575322</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1124147049543218</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05496566026076621</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7869484894853969</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.984899621253049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8474655579847763</v>
+      </c>
+      <c r="S24">
+        <v>1.839629277073669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.836165306552346</v>
+        <v>2.743516729661053</v>
       </c>
       <c r="C25">
-        <v>0.9116619412479281</v>
+        <v>0.9665888184202345</v>
       </c>
       <c r="D25">
-        <v>0.2430494236324563</v>
+        <v>0.2425951314497894</v>
       </c>
       <c r="E25">
-        <v>1.635367820980605</v>
+        <v>1.629066956537159</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5040834749777616</v>
+        <v>0.4666233341781663</v>
       </c>
       <c r="H25">
-        <v>0.01946986208322499</v>
+        <v>0.01868431752834843</v>
       </c>
       <c r="I25">
-        <v>0.01288965784653495</v>
+        <v>0.01183579355072251</v>
       </c>
       <c r="J25">
-        <v>0.3307887413683517</v>
+        <v>0.3526436508595339</v>
       </c>
       <c r="K25">
-        <v>0.2085692267340242</v>
+        <v>0.1903679960879892</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1200751491356442</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04241284412046475</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7706350090996352</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.71215877462609</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8133608814788005</v>
+      </c>
+      <c r="S25">
+        <v>1.610916466990886</v>
       </c>
     </row>
   </sheetData>
